--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_16_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_16_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-90092.69188886361</v>
+        <v>-86176.10305515279</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21067811.5872029</v>
+        <v>20912068.5021759</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>341304.3715640623</v>
+        <v>409999.884985997</v>
       </c>
     </row>
     <row r="11">
@@ -23270,49 +23272,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.1253022837963</v>
+        <v>400.0867433522511</v>
       </c>
       <c r="H11" t="n">
-        <v>293.1448980716953</v>
+        <v>292.750006414009</v>
       </c>
       <c r="I11" t="n">
-        <v>27.97973229306479</v>
+        <v>26.49318908467228</v>
       </c>
       <c r="J11" t="n">
-        <v>14.96006091008002</v>
+        <v>11.687419793854</v>
       </c>
       <c r="K11" t="n">
-        <v>14.09296117214526</v>
+        <v>9.188120483615116</v>
       </c>
       <c r="L11" t="n">
-        <v>11.42645714324614</v>
+        <v>5.341568553442613</v>
       </c>
       <c r="M11" t="n">
-        <v>7.515868967310208</v>
+        <v>0.7452579786414901</v>
       </c>
       <c r="N11" t="n">
-        <v>6.880166552921239</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>8.685614816471276</v>
+        <v>2.188868639101635</v>
       </c>
       <c r="P11" t="n">
-        <v>13.07601436734048</v>
+        <v>7.531191812490523</v>
       </c>
       <c r="Q11" t="n">
-        <v>17.72668497534603</v>
+        <v>13.562754156455</v>
       </c>
       <c r="R11" t="n">
-        <v>24.33067662398352</v>
+        <v>21.90854914031357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.44132614396322</v>
+        <v>98.56266449137924</v>
       </c>
       <c r="T11" t="n">
-        <v>217.9705227479646</v>
+        <v>217.8017310251259</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7577307493399</v>
+        <v>255.7546460348163</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -23349,22 +23351,22 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>93.0220783443572</v>
+        <v>93.00144749716304</v>
       </c>
       <c r="H12" t="n">
-        <v>51.96195995481764</v>
+        <v>51.76270940428461</v>
       </c>
       <c r="I12" t="n">
-        <v>13.03391129523499</v>
+        <v>12.32359484578712</v>
       </c>
       <c r="J12" t="n">
-        <v>11.9988978019839</v>
+        <v>10.04973517299579</v>
       </c>
       <c r="K12" t="n">
-        <v>7.679584047590227</v>
+        <v>4.348154656593753</v>
       </c>
       <c r="L12" t="n">
-        <v>2.722701059689189</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -23373,25 +23375,25 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.483625009529543</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>4.36409670170012</v>
+        <v>0.424509749335602</v>
       </c>
       <c r="Q12" t="n">
-        <v>11.11109056471342</v>
+        <v>8.477581017613943</v>
       </c>
       <c r="R12" t="n">
-        <v>18.01326862501631</v>
+        <v>16.73234637554063</v>
       </c>
       <c r="S12" t="n">
-        <v>78.81782744194658</v>
+        <v>78.43461850393234</v>
       </c>
       <c r="T12" t="n">
-        <v>140.0937148239062</v>
+        <v>140.0105580319263</v>
       </c>
       <c r="U12" t="n">
-        <v>182.9145170327034</v>
+        <v>182.9131597401249</v>
       </c>
       <c r="V12" t="n">
         <v>202.9234074721264</v>
@@ -23428,49 +23430,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5179781150012</v>
+        <v>164.5006819057487</v>
       </c>
       <c r="H13" t="n">
-        <v>141.6788456974052</v>
+        <v>141.5250666733238</v>
       </c>
       <c r="I13" t="n">
-        <v>96.47266780995034</v>
+        <v>95.95252362624773</v>
       </c>
       <c r="J13" t="n">
-        <v>15.23372809867477</v>
+        <v>14.01088610452265</v>
       </c>
       <c r="K13" t="n">
-        <v>12.08581989270142</v>
+        <v>10.07631485409216</v>
       </c>
       <c r="L13" t="n">
-        <v>10.55690853463604</v>
+        <v>7.985433933586291</v>
       </c>
       <c r="M13" t="n">
-        <v>10.59596068035418</v>
+        <v>7.884701260890999</v>
       </c>
       <c r="N13" t="n">
-        <v>9.054267004656877</v>
+        <v>6.40747527422576</v>
       </c>
       <c r="O13" t="n">
-        <v>11.69730019489984</v>
+        <v>9.252559636191176</v>
       </c>
       <c r="P13" t="n">
-        <v>13.13791998612571</v>
+        <v>11.04602209616816</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.22027128338765</v>
+        <v>16.77194961588923</v>
       </c>
       <c r="R13" t="n">
-        <v>43.13202094074613</v>
+        <v>42.35432047744712</v>
       </c>
       <c r="S13" t="n">
-        <v>167.1018718220549</v>
+        <v>166.8004460662635</v>
       </c>
       <c r="T13" t="n">
-        <v>240.579424386875</v>
+        <v>240.5055224018871</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3784355477692</v>
+        <v>277.3774921181736</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -23507,49 +23509,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.1253022837963</v>
+        <v>400.0867433522511</v>
       </c>
       <c r="H14" t="n">
-        <v>293.1448980716953</v>
+        <v>292.750006414009</v>
       </c>
       <c r="I14" t="n">
-        <v>27.97973229306479</v>
+        <v>26.49318908467228</v>
       </c>
       <c r="J14" t="n">
-        <v>14.96006091008002</v>
+        <v>11.687419793854</v>
       </c>
       <c r="K14" t="n">
-        <v>14.09296117214526</v>
+        <v>9.188120483615116</v>
       </c>
       <c r="L14" t="n">
-        <v>11.42645714324614</v>
+        <v>5.341568553442613</v>
       </c>
       <c r="M14" t="n">
-        <v>7.515868967310208</v>
+        <v>0.7452579786414901</v>
       </c>
       <c r="N14" t="n">
-        <v>6.880166552921239</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>8.685614816471276</v>
+        <v>2.188868639101635</v>
       </c>
       <c r="P14" t="n">
-        <v>13.07601436734048</v>
+        <v>7.531191812490523</v>
       </c>
       <c r="Q14" t="n">
-        <v>17.72668497534603</v>
+        <v>13.562754156455</v>
       </c>
       <c r="R14" t="n">
-        <v>24.33067662398352</v>
+        <v>21.90854914031357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.44132614396322</v>
+        <v>98.56266449137924</v>
       </c>
       <c r="T14" t="n">
-        <v>217.9705227479646</v>
+        <v>217.8017310251259</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7577307493399</v>
+        <v>255.7546460348163</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -23586,22 +23588,22 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>93.0220783443572</v>
+        <v>93.00144749716304</v>
       </c>
       <c r="H15" t="n">
-        <v>51.96195995481764</v>
+        <v>51.76270940428461</v>
       </c>
       <c r="I15" t="n">
-        <v>13.03391129523499</v>
+        <v>12.32359484578712</v>
       </c>
       <c r="J15" t="n">
-        <v>11.9988978019839</v>
+        <v>10.04973517299579</v>
       </c>
       <c r="K15" t="n">
-        <v>7.679584047590227</v>
+        <v>4.348154656593753</v>
       </c>
       <c r="L15" t="n">
-        <v>2.722701059689189</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -23610,25 +23612,25 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1.483625009529543</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>4.36409670170012</v>
+        <v>0.424509749335602</v>
       </c>
       <c r="Q15" t="n">
-        <v>11.11109056471342</v>
+        <v>8.477581017613943</v>
       </c>
       <c r="R15" t="n">
-        <v>18.01326862501631</v>
+        <v>16.73234637554063</v>
       </c>
       <c r="S15" t="n">
-        <v>78.81782744194658</v>
+        <v>78.43461850393234</v>
       </c>
       <c r="T15" t="n">
-        <v>140.0937148239062</v>
+        <v>140.0105580319263</v>
       </c>
       <c r="U15" t="n">
-        <v>182.9145170327034</v>
+        <v>182.9131597401249</v>
       </c>
       <c r="V15" t="n">
         <v>202.9234074721264</v>
@@ -23665,49 +23667,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5179781150012</v>
+        <v>164.5006819057487</v>
       </c>
       <c r="H16" t="n">
-        <v>141.6788456974052</v>
+        <v>141.5250666733238</v>
       </c>
       <c r="I16" t="n">
-        <v>96.47266780995034</v>
+        <v>95.95252362624773</v>
       </c>
       <c r="J16" t="n">
-        <v>15.23372809867477</v>
+        <v>14.01088610452265</v>
       </c>
       <c r="K16" t="n">
-        <v>12.08581989270142</v>
+        <v>10.07631485409216</v>
       </c>
       <c r="L16" t="n">
-        <v>10.55690853463604</v>
+        <v>7.985433933586291</v>
       </c>
       <c r="M16" t="n">
-        <v>10.59596068035418</v>
+        <v>7.884701260890999</v>
       </c>
       <c r="N16" t="n">
-        <v>9.054267004656877</v>
+        <v>6.40747527422576</v>
       </c>
       <c r="O16" t="n">
-        <v>11.69730019489984</v>
+        <v>9.252559636191176</v>
       </c>
       <c r="P16" t="n">
-        <v>13.13791998612571</v>
+        <v>11.04602209616816</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.22027128338765</v>
+        <v>16.77194961588923</v>
       </c>
       <c r="R16" t="n">
-        <v>43.13202094074613</v>
+        <v>42.35432047744712</v>
       </c>
       <c r="S16" t="n">
-        <v>167.1018718220549</v>
+        <v>166.8004460662635</v>
       </c>
       <c r="T16" t="n">
-        <v>240.579424386875</v>
+        <v>240.5055224018871</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3784355477692</v>
+        <v>277.3774921181736</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -23744,49 +23746,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.1253022837963</v>
+        <v>400.0867433522511</v>
       </c>
       <c r="H17" t="n">
-        <v>293.1448980716953</v>
+        <v>292.750006414009</v>
       </c>
       <c r="I17" t="n">
-        <v>27.97973229306479</v>
+        <v>26.49318908467228</v>
       </c>
       <c r="J17" t="n">
-        <v>14.96006091008002</v>
+        <v>11.687419793854</v>
       </c>
       <c r="K17" t="n">
-        <v>14.09296117214526</v>
+        <v>9.188120483615116</v>
       </c>
       <c r="L17" t="n">
-        <v>11.42645714324614</v>
+        <v>5.341568553442613</v>
       </c>
       <c r="M17" t="n">
-        <v>7.515868967310208</v>
+        <v>0.7452579786414901</v>
       </c>
       <c r="N17" t="n">
-        <v>6.880166552921239</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>8.685614816471276</v>
+        <v>2.188868639101635</v>
       </c>
       <c r="P17" t="n">
-        <v>13.07601436734048</v>
+        <v>7.531191812490523</v>
       </c>
       <c r="Q17" t="n">
-        <v>17.72668497534603</v>
+        <v>13.562754156455</v>
       </c>
       <c r="R17" t="n">
-        <v>24.33067662398352</v>
+        <v>21.90854914031357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.44132614396322</v>
+        <v>98.56266449137924</v>
       </c>
       <c r="T17" t="n">
-        <v>217.9705227479646</v>
+        <v>217.8017310251259</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7577307493399</v>
+        <v>255.7546460348163</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -23823,22 +23825,22 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>93.0220783443572</v>
+        <v>93.00144749716304</v>
       </c>
       <c r="H18" t="n">
-        <v>51.96195995481764</v>
+        <v>51.76270940428461</v>
       </c>
       <c r="I18" t="n">
-        <v>13.03391129523499</v>
+        <v>12.32359484578712</v>
       </c>
       <c r="J18" t="n">
-        <v>11.9988978019839</v>
+        <v>10.04973517299579</v>
       </c>
       <c r="K18" t="n">
-        <v>7.679584047590227</v>
+        <v>4.348154656593753</v>
       </c>
       <c r="L18" t="n">
-        <v>2.722701059689189</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -23847,25 +23849,25 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1.483625009529543</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>4.36409670170012</v>
+        <v>0.424509749335602</v>
       </c>
       <c r="Q18" t="n">
-        <v>11.11109056471342</v>
+        <v>8.477581017613943</v>
       </c>
       <c r="R18" t="n">
-        <v>18.01326862501631</v>
+        <v>16.73234637554063</v>
       </c>
       <c r="S18" t="n">
-        <v>78.81782744194658</v>
+        <v>78.43461850393234</v>
       </c>
       <c r="T18" t="n">
-        <v>140.0937148239062</v>
+        <v>140.0105580319263</v>
       </c>
       <c r="U18" t="n">
-        <v>182.9145170327034</v>
+        <v>182.9131597401249</v>
       </c>
       <c r="V18" t="n">
         <v>202.9234074721264</v>
@@ -23902,49 +23904,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5179781150012</v>
+        <v>164.5006819057487</v>
       </c>
       <c r="H19" t="n">
-        <v>141.6788456974052</v>
+        <v>141.5250666733238</v>
       </c>
       <c r="I19" t="n">
-        <v>96.47266780995034</v>
+        <v>95.95252362624773</v>
       </c>
       <c r="J19" t="n">
-        <v>15.23372809867477</v>
+        <v>14.01088610452265</v>
       </c>
       <c r="K19" t="n">
-        <v>12.08581989270142</v>
+        <v>10.07631485409216</v>
       </c>
       <c r="L19" t="n">
-        <v>10.55690853463604</v>
+        <v>7.985433933586291</v>
       </c>
       <c r="M19" t="n">
-        <v>10.59596068035418</v>
+        <v>7.884701260890999</v>
       </c>
       <c r="N19" t="n">
-        <v>9.054267004656877</v>
+        <v>6.40747527422576</v>
       </c>
       <c r="O19" t="n">
-        <v>11.69730019489984</v>
+        <v>9.252559636191176</v>
       </c>
       <c r="P19" t="n">
-        <v>13.13791998612571</v>
+        <v>11.04602209616816</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.22027128338765</v>
+        <v>16.77194961588923</v>
       </c>
       <c r="R19" t="n">
-        <v>43.13202094074613</v>
+        <v>42.35432047744712</v>
       </c>
       <c r="S19" t="n">
-        <v>167.1018718220549</v>
+        <v>166.8004460662635</v>
       </c>
       <c r="T19" t="n">
-        <v>240.579424386875</v>
+        <v>240.5055224018871</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3784355477692</v>
+        <v>277.3774921181736</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -23981,49 +23983,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.1253022837963</v>
+        <v>400.0867433522511</v>
       </c>
       <c r="H20" t="n">
-        <v>293.1448980716953</v>
+        <v>292.750006414009</v>
       </c>
       <c r="I20" t="n">
-        <v>27.97973229306479</v>
+        <v>26.49318908467228</v>
       </c>
       <c r="J20" t="n">
-        <v>14.96006091008002</v>
+        <v>11.687419793854</v>
       </c>
       <c r="K20" t="n">
-        <v>14.09296117214526</v>
+        <v>9.188120483615116</v>
       </c>
       <c r="L20" t="n">
-        <v>11.42645714324614</v>
+        <v>5.341568553442613</v>
       </c>
       <c r="M20" t="n">
-        <v>7.515868967310208</v>
+        <v>0.7452579786414901</v>
       </c>
       <c r="N20" t="n">
-        <v>6.880166552921239</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>8.685614816471276</v>
+        <v>2.188868639101635</v>
       </c>
       <c r="P20" t="n">
-        <v>13.07601436734048</v>
+        <v>7.531191812490523</v>
       </c>
       <c r="Q20" t="n">
-        <v>17.72668497534603</v>
+        <v>13.562754156455</v>
       </c>
       <c r="R20" t="n">
-        <v>24.33067662398352</v>
+        <v>21.90854914031357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.44132614396322</v>
+        <v>98.56266449137924</v>
       </c>
       <c r="T20" t="n">
-        <v>217.9705227479646</v>
+        <v>217.8017310251259</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7577307493399</v>
+        <v>255.7546460348163</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -24060,22 +24062,22 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>93.0220783443572</v>
+        <v>93.00144749716304</v>
       </c>
       <c r="H21" t="n">
-        <v>51.96195995481764</v>
+        <v>51.76270940428461</v>
       </c>
       <c r="I21" t="n">
-        <v>13.03391129523499</v>
+        <v>12.32359484578712</v>
       </c>
       <c r="J21" t="n">
-        <v>11.9988978019839</v>
+        <v>10.04973517299579</v>
       </c>
       <c r="K21" t="n">
-        <v>7.679584047590227</v>
+        <v>4.348154656593753</v>
       </c>
       <c r="L21" t="n">
-        <v>2.722701059689189</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -24084,25 +24086,25 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1.483625009529543</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>4.36409670170012</v>
+        <v>0.424509749335602</v>
       </c>
       <c r="Q21" t="n">
-        <v>11.11109056471342</v>
+        <v>8.477581017613943</v>
       </c>
       <c r="R21" t="n">
-        <v>18.01326862501631</v>
+        <v>16.73234637554063</v>
       </c>
       <c r="S21" t="n">
-        <v>78.81782744194658</v>
+        <v>78.43461850393234</v>
       </c>
       <c r="T21" t="n">
-        <v>140.0937148239062</v>
+        <v>140.0105580319263</v>
       </c>
       <c r="U21" t="n">
-        <v>182.9145170327034</v>
+        <v>182.9131597401249</v>
       </c>
       <c r="V21" t="n">
         <v>202.9234074721264</v>
@@ -24139,49 +24141,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5179781150012</v>
+        <v>164.5006819057487</v>
       </c>
       <c r="H22" t="n">
-        <v>141.6788456974052</v>
+        <v>141.5250666733238</v>
       </c>
       <c r="I22" t="n">
-        <v>96.47266780995034</v>
+        <v>95.95252362624773</v>
       </c>
       <c r="J22" t="n">
-        <v>15.23372809867477</v>
+        <v>14.01088610452265</v>
       </c>
       <c r="K22" t="n">
-        <v>12.08581989270142</v>
+        <v>10.07631485409216</v>
       </c>
       <c r="L22" t="n">
-        <v>10.55690853463604</v>
+        <v>7.985433933586291</v>
       </c>
       <c r="M22" t="n">
-        <v>10.59596068035418</v>
+        <v>7.884701260890999</v>
       </c>
       <c r="N22" t="n">
-        <v>9.054267004656877</v>
+        <v>6.40747527422576</v>
       </c>
       <c r="O22" t="n">
-        <v>11.69730019489984</v>
+        <v>9.252559636191176</v>
       </c>
       <c r="P22" t="n">
-        <v>13.13791998612571</v>
+        <v>11.04602209616816</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.22027128338765</v>
+        <v>16.77194961588923</v>
       </c>
       <c r="R22" t="n">
-        <v>43.13202094074613</v>
+        <v>42.35432047744712</v>
       </c>
       <c r="S22" t="n">
-        <v>167.1018718220549</v>
+        <v>166.8004460662635</v>
       </c>
       <c r="T22" t="n">
-        <v>240.579424386875</v>
+        <v>240.5055224018871</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3784355477692</v>
+        <v>277.3774921181736</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -24218,49 +24220,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>400.1253022837963</v>
+        <v>400.0867433522511</v>
       </c>
       <c r="H23" t="n">
-        <v>293.1448980716953</v>
+        <v>292.750006414009</v>
       </c>
       <c r="I23" t="n">
-        <v>27.97973229306479</v>
+        <v>26.49318908467228</v>
       </c>
       <c r="J23" t="n">
-        <v>14.96006091008002</v>
+        <v>11.687419793854</v>
       </c>
       <c r="K23" t="n">
-        <v>14.09296117214526</v>
+        <v>9.188120483615119</v>
       </c>
       <c r="L23" t="n">
-        <v>11.42645714324614</v>
+        <v>5.341568553442613</v>
       </c>
       <c r="M23" t="n">
-        <v>7.515868967310208</v>
+        <v>0.7452579786414901</v>
       </c>
       <c r="N23" t="n">
-        <v>6.880166552921239</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>8.685614816471276</v>
+        <v>2.188868639101635</v>
       </c>
       <c r="P23" t="n">
-        <v>13.07601436734048</v>
+        <v>7.531191812490526</v>
       </c>
       <c r="Q23" t="n">
-        <v>17.72668497534603</v>
+        <v>13.562754156455</v>
       </c>
       <c r="R23" t="n">
-        <v>24.33067662398352</v>
+        <v>21.90854914031357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.44132614396322</v>
+        <v>98.56266449137924</v>
       </c>
       <c r="T23" t="n">
-        <v>217.9705227479646</v>
+        <v>217.8017310251259</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7577307493399</v>
+        <v>255.7546460348163</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -24297,22 +24299,22 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G24" t="n">
-        <v>93.0220783443572</v>
+        <v>93.00144749716304</v>
       </c>
       <c r="H24" t="n">
-        <v>51.96195995481764</v>
+        <v>51.76270940428461</v>
       </c>
       <c r="I24" t="n">
-        <v>13.03391129523499</v>
+        <v>12.32359484578712</v>
       </c>
       <c r="J24" t="n">
-        <v>11.9988978019839</v>
+        <v>10.04973517299579</v>
       </c>
       <c r="K24" t="n">
-        <v>7.679584047590227</v>
+        <v>4.348154656593753</v>
       </c>
       <c r="L24" t="n">
-        <v>2.722701059689189</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -24321,25 +24323,25 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1.483625009529543</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>4.36409670170012</v>
+        <v>0.424509749335602</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.11109056471342</v>
+        <v>8.477581017613941</v>
       </c>
       <c r="R24" t="n">
-        <v>18.01326862501631</v>
+        <v>16.73234637554063</v>
       </c>
       <c r="S24" t="n">
-        <v>78.81782744194658</v>
+        <v>78.43461850393234</v>
       </c>
       <c r="T24" t="n">
-        <v>140.0937148239062</v>
+        <v>140.0105580319263</v>
       </c>
       <c r="U24" t="n">
-        <v>182.9145170327034</v>
+        <v>182.9131597401249</v>
       </c>
       <c r="V24" t="n">
         <v>202.9234074721264</v>
@@ -24376,49 +24378,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5179781150012</v>
+        <v>164.5006819057487</v>
       </c>
       <c r="H25" t="n">
-        <v>141.6788456974052</v>
+        <v>141.5250666733238</v>
       </c>
       <c r="I25" t="n">
-        <v>96.47266780995034</v>
+        <v>95.95252362624773</v>
       </c>
       <c r="J25" t="n">
-        <v>15.23372809867477</v>
+        <v>14.01088610452265</v>
       </c>
       <c r="K25" t="n">
-        <v>12.08581989270142</v>
+        <v>10.07631485409217</v>
       </c>
       <c r="L25" t="n">
-        <v>10.55690853463604</v>
+        <v>7.985433933586291</v>
       </c>
       <c r="M25" t="n">
-        <v>10.59596068035418</v>
+        <v>7.884701260890999</v>
       </c>
       <c r="N25" t="n">
-        <v>9.054267004656877</v>
+        <v>6.40747527422576</v>
       </c>
       <c r="O25" t="n">
-        <v>11.69730019489984</v>
+        <v>9.252559636191176</v>
       </c>
       <c r="P25" t="n">
-        <v>13.13791998612571</v>
+        <v>11.04602209616816</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.22027128338765</v>
+        <v>16.77194961588923</v>
       </c>
       <c r="R25" t="n">
-        <v>43.13202094074613</v>
+        <v>42.35432047744712</v>
       </c>
       <c r="S25" t="n">
-        <v>167.1018718220549</v>
+        <v>166.8004460662635</v>
       </c>
       <c r="T25" t="n">
-        <v>240.579424386875</v>
+        <v>240.5055224018871</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3784355477692</v>
+        <v>277.3774921181736</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -24455,49 +24457,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>400.1253022837963</v>
+        <v>400.0867433522511</v>
       </c>
       <c r="H26" t="n">
-        <v>293.1448980716953</v>
+        <v>292.750006414009</v>
       </c>
       <c r="I26" t="n">
-        <v>27.97973229306479</v>
+        <v>26.49318908467228</v>
       </c>
       <c r="J26" t="n">
-        <v>14.96006091008002</v>
+        <v>11.687419793854</v>
       </c>
       <c r="K26" t="n">
-        <v>14.09296117214526</v>
+        <v>9.188120483615116</v>
       </c>
       <c r="L26" t="n">
-        <v>11.42645714324614</v>
+        <v>5.341568553442613</v>
       </c>
       <c r="M26" t="n">
-        <v>7.515868967310208</v>
+        <v>0.7452579786414901</v>
       </c>
       <c r="N26" t="n">
-        <v>6.880166552921239</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>8.685614816471276</v>
+        <v>2.188868639101635</v>
       </c>
       <c r="P26" t="n">
-        <v>13.07601436734048</v>
+        <v>7.531191812490523</v>
       </c>
       <c r="Q26" t="n">
-        <v>17.72668497534603</v>
+        <v>13.562754156455</v>
       </c>
       <c r="R26" t="n">
-        <v>24.33067662398352</v>
+        <v>21.90854914031357</v>
       </c>
       <c r="S26" t="n">
-        <v>99.44132614396322</v>
+        <v>98.56266449137924</v>
       </c>
       <c r="T26" t="n">
-        <v>217.9705227479646</v>
+        <v>217.8017310251259</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7577307493399</v>
+        <v>255.7546460348163</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -24534,22 +24536,22 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G27" t="n">
-        <v>93.0220783443572</v>
+        <v>93.00144749716304</v>
       </c>
       <c r="H27" t="n">
-        <v>51.96195995481764</v>
+        <v>51.76270940428461</v>
       </c>
       <c r="I27" t="n">
-        <v>13.03391129523499</v>
+        <v>12.32359484578712</v>
       </c>
       <c r="J27" t="n">
-        <v>11.9988978019839</v>
+        <v>10.04973517299579</v>
       </c>
       <c r="K27" t="n">
-        <v>7.679584047590227</v>
+        <v>4.348154656593753</v>
       </c>
       <c r="L27" t="n">
-        <v>2.722701059689189</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -24558,25 +24560,25 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1.483625009529543</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>4.36409670170012</v>
+        <v>0.424509749335602</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.11109056471342</v>
+        <v>8.477581017613943</v>
       </c>
       <c r="R27" t="n">
-        <v>18.01326862501631</v>
+        <v>16.73234637554063</v>
       </c>
       <c r="S27" t="n">
-        <v>78.81782744194658</v>
+        <v>78.43461850393234</v>
       </c>
       <c r="T27" t="n">
-        <v>140.0937148239062</v>
+        <v>140.0105580319263</v>
       </c>
       <c r="U27" t="n">
-        <v>182.9145170327034</v>
+        <v>182.9131597401249</v>
       </c>
       <c r="V27" t="n">
         <v>202.9234074721264</v>
@@ -24613,49 +24615,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5179781150012</v>
+        <v>164.5006819057487</v>
       </c>
       <c r="H28" t="n">
-        <v>141.6788456974052</v>
+        <v>141.5250666733238</v>
       </c>
       <c r="I28" t="n">
-        <v>96.47266780995034</v>
+        <v>95.95252362624773</v>
       </c>
       <c r="J28" t="n">
-        <v>15.23372809867477</v>
+        <v>14.01088610452265</v>
       </c>
       <c r="K28" t="n">
-        <v>12.08581989270142</v>
+        <v>10.07631485409216</v>
       </c>
       <c r="L28" t="n">
-        <v>10.55690853463604</v>
+        <v>7.985433933586291</v>
       </c>
       <c r="M28" t="n">
-        <v>10.59596068035418</v>
+        <v>7.884701260890999</v>
       </c>
       <c r="N28" t="n">
-        <v>9.054267004656877</v>
+        <v>6.40747527422576</v>
       </c>
       <c r="O28" t="n">
-        <v>11.69730019489984</v>
+        <v>9.252559636191176</v>
       </c>
       <c r="P28" t="n">
-        <v>13.13791998612571</v>
+        <v>11.04602209616816</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.22027128338765</v>
+        <v>16.77194961588923</v>
       </c>
       <c r="R28" t="n">
-        <v>43.13202094074613</v>
+        <v>42.35432047744712</v>
       </c>
       <c r="S28" t="n">
-        <v>167.1018718220549</v>
+        <v>166.8004460662635</v>
       </c>
       <c r="T28" t="n">
-        <v>240.579424386875</v>
+        <v>240.5055224018871</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3784355477692</v>
+        <v>277.3774921181736</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -24692,49 +24694,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>400.1253022837963</v>
+        <v>400.0867433522511</v>
       </c>
       <c r="H29" t="n">
-        <v>293.1448980716953</v>
+        <v>292.750006414009</v>
       </c>
       <c r="I29" t="n">
-        <v>27.97973229306479</v>
+        <v>26.49318908467228</v>
       </c>
       <c r="J29" t="n">
-        <v>14.96006091008002</v>
+        <v>11.687419793854</v>
       </c>
       <c r="K29" t="n">
-        <v>14.09296117214526</v>
+        <v>9.188120483615116</v>
       </c>
       <c r="L29" t="n">
-        <v>11.42645714324614</v>
+        <v>5.341568553442613</v>
       </c>
       <c r="M29" t="n">
-        <v>7.515868967310208</v>
+        <v>0.7452579786414901</v>
       </c>
       <c r="N29" t="n">
-        <v>6.880166552921239</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>8.685614816471276</v>
+        <v>2.188868639101635</v>
       </c>
       <c r="P29" t="n">
-        <v>13.07601436734048</v>
+        <v>7.531191812490523</v>
       </c>
       <c r="Q29" t="n">
-        <v>17.72668497534603</v>
+        <v>13.562754156455</v>
       </c>
       <c r="R29" t="n">
-        <v>24.33067662398352</v>
+        <v>21.90854914031357</v>
       </c>
       <c r="S29" t="n">
-        <v>99.44132614396322</v>
+        <v>98.56266449137924</v>
       </c>
       <c r="T29" t="n">
-        <v>217.9705227479646</v>
+        <v>217.8017310251259</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7577307493399</v>
+        <v>255.7546460348163</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -24771,22 +24773,22 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G30" t="n">
-        <v>93.0220783443572</v>
+        <v>93.00144749716304</v>
       </c>
       <c r="H30" t="n">
-        <v>51.96195995481764</v>
+        <v>51.76270940428461</v>
       </c>
       <c r="I30" t="n">
-        <v>13.03391129523499</v>
+        <v>12.32359484578712</v>
       </c>
       <c r="J30" t="n">
-        <v>11.9988978019839</v>
+        <v>10.04973517299579</v>
       </c>
       <c r="K30" t="n">
-        <v>7.679584047590227</v>
+        <v>4.348154656593753</v>
       </c>
       <c r="L30" t="n">
-        <v>2.722701059689189</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -24795,25 +24797,25 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1.483625009529543</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>4.36409670170012</v>
+        <v>0.424509749335602</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.11109056471342</v>
+        <v>8.477581017613943</v>
       </c>
       <c r="R30" t="n">
-        <v>18.01326862501631</v>
+        <v>16.73234637554063</v>
       </c>
       <c r="S30" t="n">
-        <v>78.81782744194658</v>
+        <v>78.43461850393234</v>
       </c>
       <c r="T30" t="n">
-        <v>140.0937148239062</v>
+        <v>140.0105580319263</v>
       </c>
       <c r="U30" t="n">
-        <v>182.9145170327034</v>
+        <v>182.9131597401249</v>
       </c>
       <c r="V30" t="n">
         <v>202.9234074721264</v>
@@ -24850,49 +24852,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5179781150012</v>
+        <v>164.5006819057487</v>
       </c>
       <c r="H31" t="n">
-        <v>141.6788456974052</v>
+        <v>141.5250666733238</v>
       </c>
       <c r="I31" t="n">
-        <v>96.47266780995034</v>
+        <v>95.95252362624773</v>
       </c>
       <c r="J31" t="n">
-        <v>15.23372809867477</v>
+        <v>14.01088610452265</v>
       </c>
       <c r="K31" t="n">
-        <v>12.08581989270142</v>
+        <v>10.07631485409216</v>
       </c>
       <c r="L31" t="n">
-        <v>10.55690853463604</v>
+        <v>7.985433933586291</v>
       </c>
       <c r="M31" t="n">
-        <v>10.59596068035418</v>
+        <v>7.884701260890999</v>
       </c>
       <c r="N31" t="n">
-        <v>9.054267004656877</v>
+        <v>6.40747527422576</v>
       </c>
       <c r="O31" t="n">
-        <v>11.69730019489984</v>
+        <v>9.252559636191176</v>
       </c>
       <c r="P31" t="n">
-        <v>13.13791998612571</v>
+        <v>11.04602209616816</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.22027128338765</v>
+        <v>16.77194961588923</v>
       </c>
       <c r="R31" t="n">
-        <v>43.13202094074613</v>
+        <v>42.35432047744712</v>
       </c>
       <c r="S31" t="n">
-        <v>167.1018718220549</v>
+        <v>166.8004460662635</v>
       </c>
       <c r="T31" t="n">
-        <v>240.579424386875</v>
+        <v>240.5055224018871</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3784355477692</v>
+        <v>277.3774921181736</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -24929,49 +24931,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>400.1253022837963</v>
+        <v>400.0867433522511</v>
       </c>
       <c r="H32" t="n">
-        <v>293.1448980716953</v>
+        <v>292.750006414009</v>
       </c>
       <c r="I32" t="n">
-        <v>27.97973229306479</v>
+        <v>26.49318908467228</v>
       </c>
       <c r="J32" t="n">
-        <v>14.96006091008002</v>
+        <v>11.687419793854</v>
       </c>
       <c r="K32" t="n">
-        <v>14.09296117214526</v>
+        <v>9.188120483615116</v>
       </c>
       <c r="L32" t="n">
-        <v>11.42645714324614</v>
+        <v>5.341568553442613</v>
       </c>
       <c r="M32" t="n">
-        <v>7.515868967310208</v>
+        <v>0.7452579786414901</v>
       </c>
       <c r="N32" t="n">
-        <v>6.880166552921239</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>8.685614816471276</v>
+        <v>2.188868639101635</v>
       </c>
       <c r="P32" t="n">
-        <v>13.07601436734048</v>
+        <v>7.531191812490523</v>
       </c>
       <c r="Q32" t="n">
-        <v>17.72668497534603</v>
+        <v>13.562754156455</v>
       </c>
       <c r="R32" t="n">
-        <v>24.33067662398352</v>
+        <v>21.90854914031357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.44132614396322</v>
+        <v>98.56266449137924</v>
       </c>
       <c r="T32" t="n">
-        <v>217.9705227479646</v>
+        <v>217.8017310251259</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7577307493399</v>
+        <v>255.7546460348163</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -25008,22 +25010,22 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>93.0220783443572</v>
+        <v>93.00144749716304</v>
       </c>
       <c r="H33" t="n">
-        <v>51.96195995481764</v>
+        <v>51.76270940428461</v>
       </c>
       <c r="I33" t="n">
-        <v>13.03391129523499</v>
+        <v>12.32359484578712</v>
       </c>
       <c r="J33" t="n">
-        <v>11.9988978019839</v>
+        <v>10.04973517299579</v>
       </c>
       <c r="K33" t="n">
-        <v>7.679584047590227</v>
+        <v>4.348154656593753</v>
       </c>
       <c r="L33" t="n">
-        <v>2.722701059689189</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -25032,25 +25034,25 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1.483625009529543</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>4.36409670170012</v>
+        <v>0.424509749335602</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.11109056471342</v>
+        <v>8.477581017613943</v>
       </c>
       <c r="R33" t="n">
-        <v>18.01326862501631</v>
+        <v>16.73234637554063</v>
       </c>
       <c r="S33" t="n">
-        <v>78.81782744194658</v>
+        <v>78.43461850393234</v>
       </c>
       <c r="T33" t="n">
-        <v>140.0937148239062</v>
+        <v>140.0105580319263</v>
       </c>
       <c r="U33" t="n">
-        <v>182.9145170327034</v>
+        <v>182.9131597401249</v>
       </c>
       <c r="V33" t="n">
         <v>202.9234074721264</v>
@@ -25087,49 +25089,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5179781150012</v>
+        <v>164.5006819057487</v>
       </c>
       <c r="H34" t="n">
-        <v>141.6788456974052</v>
+        <v>141.5250666733238</v>
       </c>
       <c r="I34" t="n">
-        <v>96.47266780995034</v>
+        <v>95.95252362624773</v>
       </c>
       <c r="J34" t="n">
-        <v>15.23372809867477</v>
+        <v>14.01088610452265</v>
       </c>
       <c r="K34" t="n">
-        <v>12.08581989270142</v>
+        <v>10.07631485409216</v>
       </c>
       <c r="L34" t="n">
-        <v>10.55690853463604</v>
+        <v>7.985433933586291</v>
       </c>
       <c r="M34" t="n">
-        <v>10.59596068035418</v>
+        <v>7.884701260890999</v>
       </c>
       <c r="N34" t="n">
-        <v>9.054267004656877</v>
+        <v>6.40747527422576</v>
       </c>
       <c r="O34" t="n">
-        <v>11.69730019489984</v>
+        <v>9.252559636191176</v>
       </c>
       <c r="P34" t="n">
-        <v>13.13791998612571</v>
+        <v>11.04602209616816</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.22027128338765</v>
+        <v>16.77194961588923</v>
       </c>
       <c r="R34" t="n">
-        <v>43.13202094074613</v>
+        <v>42.35432047744712</v>
       </c>
       <c r="S34" t="n">
-        <v>167.1018718220549</v>
+        <v>166.8004460662635</v>
       </c>
       <c r="T34" t="n">
-        <v>240.579424386875</v>
+        <v>240.5055224018871</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3784355477692</v>
+        <v>277.3774921181736</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -25166,49 +25168,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.1253022837963</v>
+        <v>400.0867433522511</v>
       </c>
       <c r="H35" t="n">
-        <v>293.1448980716953</v>
+        <v>292.750006414009</v>
       </c>
       <c r="I35" t="n">
-        <v>27.97973229306479</v>
+        <v>26.49318908467228</v>
       </c>
       <c r="J35" t="n">
-        <v>14.96006091008002</v>
+        <v>11.687419793854</v>
       </c>
       <c r="K35" t="n">
-        <v>14.09296117214526</v>
+        <v>9.188120483615116</v>
       </c>
       <c r="L35" t="n">
-        <v>11.42645714324614</v>
+        <v>5.341568553442613</v>
       </c>
       <c r="M35" t="n">
-        <v>7.515868967310208</v>
+        <v>0.7452579786414901</v>
       </c>
       <c r="N35" t="n">
-        <v>6.880166552921239</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>8.685614816471276</v>
+        <v>2.188868639101635</v>
       </c>
       <c r="P35" t="n">
-        <v>13.07601436734048</v>
+        <v>7.531191812490523</v>
       </c>
       <c r="Q35" t="n">
-        <v>17.72668497534603</v>
+        <v>13.562754156455</v>
       </c>
       <c r="R35" t="n">
-        <v>24.33067662398352</v>
+        <v>21.90854914031357</v>
       </c>
       <c r="S35" t="n">
-        <v>99.44132614396322</v>
+        <v>98.56266449137924</v>
       </c>
       <c r="T35" t="n">
-        <v>217.9705227479646</v>
+        <v>217.8017310251259</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7577307493399</v>
+        <v>255.7546460348163</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -25245,22 +25247,22 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G36" t="n">
-        <v>93.0220783443572</v>
+        <v>93.00144749716304</v>
       </c>
       <c r="H36" t="n">
-        <v>51.96195995481764</v>
+        <v>51.76270940428461</v>
       </c>
       <c r="I36" t="n">
-        <v>13.03391129523499</v>
+        <v>12.32359484578712</v>
       </c>
       <c r="J36" t="n">
-        <v>11.9988978019839</v>
+        <v>10.04973517299579</v>
       </c>
       <c r="K36" t="n">
-        <v>7.679584047590227</v>
+        <v>4.348154656593753</v>
       </c>
       <c r="L36" t="n">
-        <v>2.722701059689189</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -25269,25 +25271,25 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1.483625009529543</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>4.36409670170012</v>
+        <v>0.424509749335602</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.11109056471342</v>
+        <v>8.477581017613943</v>
       </c>
       <c r="R36" t="n">
-        <v>18.01326862501631</v>
+        <v>16.73234637554063</v>
       </c>
       <c r="S36" t="n">
-        <v>78.81782744194658</v>
+        <v>78.43461850393234</v>
       </c>
       <c r="T36" t="n">
-        <v>140.0937148239062</v>
+        <v>140.0105580319263</v>
       </c>
       <c r="U36" t="n">
-        <v>182.9145170327034</v>
+        <v>182.9131597401249</v>
       </c>
       <c r="V36" t="n">
         <v>202.9234074721264</v>
@@ -25324,49 +25326,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5179781150012</v>
+        <v>164.5006819057487</v>
       </c>
       <c r="H37" t="n">
-        <v>141.6788456974052</v>
+        <v>141.5250666733238</v>
       </c>
       <c r="I37" t="n">
-        <v>96.47266780995034</v>
+        <v>95.95252362624773</v>
       </c>
       <c r="J37" t="n">
-        <v>15.23372809867477</v>
+        <v>14.01088610452265</v>
       </c>
       <c r="K37" t="n">
-        <v>12.08581989270142</v>
+        <v>10.07631485409216</v>
       </c>
       <c r="L37" t="n">
-        <v>10.55690853463604</v>
+        <v>7.985433933586291</v>
       </c>
       <c r="M37" t="n">
-        <v>10.59596068035418</v>
+        <v>7.884701260890999</v>
       </c>
       <c r="N37" t="n">
-        <v>9.054267004656877</v>
+        <v>6.40747527422576</v>
       </c>
       <c r="O37" t="n">
-        <v>11.69730019489984</v>
+        <v>9.252559636191176</v>
       </c>
       <c r="P37" t="n">
-        <v>13.13791998612571</v>
+        <v>11.04602209616816</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.22027128338765</v>
+        <v>16.77194961588923</v>
       </c>
       <c r="R37" t="n">
-        <v>43.13202094074613</v>
+        <v>42.35432047744712</v>
       </c>
       <c r="S37" t="n">
-        <v>167.1018718220549</v>
+        <v>166.8004460662635</v>
       </c>
       <c r="T37" t="n">
-        <v>240.579424386875</v>
+        <v>240.5055224018871</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3784355477692</v>
+        <v>277.3774921181736</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -25403,49 +25405,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.1253022837963</v>
+        <v>400.0867433522511</v>
       </c>
       <c r="H38" t="n">
-        <v>293.1448980716953</v>
+        <v>292.750006414009</v>
       </c>
       <c r="I38" t="n">
-        <v>27.97973229306479</v>
+        <v>26.49318908467228</v>
       </c>
       <c r="J38" t="n">
-        <v>14.96006091008002</v>
+        <v>11.687419793854</v>
       </c>
       <c r="K38" t="n">
-        <v>14.09296117214526</v>
+        <v>9.188120483615116</v>
       </c>
       <c r="L38" t="n">
-        <v>11.42645714324614</v>
+        <v>5.341568553442613</v>
       </c>
       <c r="M38" t="n">
-        <v>7.515868967310208</v>
+        <v>0.7452579786414901</v>
       </c>
       <c r="N38" t="n">
-        <v>6.880166552921239</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>8.685614816471276</v>
+        <v>2.188868639101635</v>
       </c>
       <c r="P38" t="n">
-        <v>13.07601436734048</v>
+        <v>7.531191812490523</v>
       </c>
       <c r="Q38" t="n">
-        <v>17.72668497534603</v>
+        <v>13.562754156455</v>
       </c>
       <c r="R38" t="n">
-        <v>24.33067662398352</v>
+        <v>21.90854914031357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.44132614396322</v>
+        <v>98.56266449137924</v>
       </c>
       <c r="T38" t="n">
-        <v>217.9705227479646</v>
+        <v>217.8017310251259</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7577307493399</v>
+        <v>255.7546460348163</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -25482,22 +25484,22 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G39" t="n">
-        <v>93.0220783443572</v>
+        <v>93.00144749716304</v>
       </c>
       <c r="H39" t="n">
-        <v>51.96195995481764</v>
+        <v>51.76270940428461</v>
       </c>
       <c r="I39" t="n">
-        <v>13.03391129523499</v>
+        <v>12.32359484578712</v>
       </c>
       <c r="J39" t="n">
-        <v>11.9988978019839</v>
+        <v>10.04973517299579</v>
       </c>
       <c r="K39" t="n">
-        <v>7.679584047590227</v>
+        <v>4.348154656593753</v>
       </c>
       <c r="L39" t="n">
-        <v>2.722701059689189</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -25506,25 +25508,25 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1.483625009529543</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>4.36409670170012</v>
+        <v>0.424509749335602</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.11109056471342</v>
+        <v>8.477581017613943</v>
       </c>
       <c r="R39" t="n">
-        <v>18.01326862501631</v>
+        <v>16.73234637554063</v>
       </c>
       <c r="S39" t="n">
-        <v>78.81782744194658</v>
+        <v>78.43461850393234</v>
       </c>
       <c r="T39" t="n">
-        <v>140.0937148239062</v>
+        <v>140.0105580319263</v>
       </c>
       <c r="U39" t="n">
-        <v>182.9145170327034</v>
+        <v>182.9131597401249</v>
       </c>
       <c r="V39" t="n">
         <v>202.9234074721264</v>
@@ -25561,49 +25563,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5179781150012</v>
+        <v>164.5006819057487</v>
       </c>
       <c r="H40" t="n">
-        <v>141.6788456974052</v>
+        <v>141.5250666733238</v>
       </c>
       <c r="I40" t="n">
-        <v>96.47266780995034</v>
+        <v>95.95252362624773</v>
       </c>
       <c r="J40" t="n">
-        <v>15.23372809867477</v>
+        <v>14.01088610452265</v>
       </c>
       <c r="K40" t="n">
-        <v>12.08581989270142</v>
+        <v>10.07631485409216</v>
       </c>
       <c r="L40" t="n">
-        <v>10.55690853463604</v>
+        <v>7.985433933586291</v>
       </c>
       <c r="M40" t="n">
-        <v>10.59596068035418</v>
+        <v>7.884701260890999</v>
       </c>
       <c r="N40" t="n">
-        <v>9.054267004656877</v>
+        <v>6.40747527422576</v>
       </c>
       <c r="O40" t="n">
-        <v>11.69730019489984</v>
+        <v>9.252559636191176</v>
       </c>
       <c r="P40" t="n">
-        <v>13.13791998612571</v>
+        <v>11.04602209616816</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.22027128338765</v>
+        <v>16.77194961588923</v>
       </c>
       <c r="R40" t="n">
-        <v>43.13202094074613</v>
+        <v>42.35432047744712</v>
       </c>
       <c r="S40" t="n">
-        <v>167.1018718220549</v>
+        <v>166.8004460662635</v>
       </c>
       <c r="T40" t="n">
-        <v>240.579424386875</v>
+        <v>240.5055224018871</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3784355477692</v>
+        <v>277.3774921181736</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -25640,49 +25642,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.1253022837963</v>
+        <v>400.0867433522511</v>
       </c>
       <c r="H41" t="n">
-        <v>293.1448980716953</v>
+        <v>292.750006414009</v>
       </c>
       <c r="I41" t="n">
-        <v>27.97973229306479</v>
+        <v>26.49318908467228</v>
       </c>
       <c r="J41" t="n">
-        <v>14.96006091008002</v>
+        <v>11.687419793854</v>
       </c>
       <c r="K41" t="n">
-        <v>14.09296117214526</v>
+        <v>9.188120483615116</v>
       </c>
       <c r="L41" t="n">
-        <v>11.42645714324614</v>
+        <v>5.341568553442613</v>
       </c>
       <c r="M41" t="n">
-        <v>7.515868967310208</v>
+        <v>0.7452579786414901</v>
       </c>
       <c r="N41" t="n">
-        <v>6.880166552921239</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>8.685614816471276</v>
+        <v>2.188868639101635</v>
       </c>
       <c r="P41" t="n">
-        <v>13.07601436734048</v>
+        <v>7.531191812490523</v>
       </c>
       <c r="Q41" t="n">
-        <v>17.72668497534603</v>
+        <v>13.562754156455</v>
       </c>
       <c r="R41" t="n">
-        <v>24.33067662398352</v>
+        <v>21.90854914031357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.44132614396322</v>
+        <v>98.56266449137924</v>
       </c>
       <c r="T41" t="n">
-        <v>217.9705227479646</v>
+        <v>217.8017310251259</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7577307493399</v>
+        <v>255.7546460348163</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -25719,22 +25721,22 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G42" t="n">
-        <v>93.0220783443572</v>
+        <v>93.00144749716304</v>
       </c>
       <c r="H42" t="n">
-        <v>51.96195995481764</v>
+        <v>51.76270940428461</v>
       </c>
       <c r="I42" t="n">
-        <v>13.03391129523499</v>
+        <v>12.32359484578712</v>
       </c>
       <c r="J42" t="n">
-        <v>11.9988978019839</v>
+        <v>10.04973517299579</v>
       </c>
       <c r="K42" t="n">
-        <v>7.679584047590227</v>
+        <v>4.348154656593753</v>
       </c>
       <c r="L42" t="n">
-        <v>2.722701059689189</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -25743,25 +25745,25 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1.483625009529543</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>4.36409670170012</v>
+        <v>0.424509749335602</v>
       </c>
       <c r="Q42" t="n">
-        <v>11.11109056471342</v>
+        <v>8.477581017613943</v>
       </c>
       <c r="R42" t="n">
-        <v>18.01326862501631</v>
+        <v>16.73234637554063</v>
       </c>
       <c r="S42" t="n">
-        <v>78.81782744194658</v>
+        <v>78.43461850393234</v>
       </c>
       <c r="T42" t="n">
-        <v>140.0937148239062</v>
+        <v>140.0105580319263</v>
       </c>
       <c r="U42" t="n">
-        <v>182.9145170327034</v>
+        <v>182.9131597401249</v>
       </c>
       <c r="V42" t="n">
         <v>202.9234074721264</v>
@@ -25798,49 +25800,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5179781150012</v>
+        <v>164.5006819057487</v>
       </c>
       <c r="H43" t="n">
-        <v>141.6788456974052</v>
+        <v>141.5250666733238</v>
       </c>
       <c r="I43" t="n">
-        <v>96.47266780995034</v>
+        <v>95.95252362624773</v>
       </c>
       <c r="J43" t="n">
-        <v>15.23372809867477</v>
+        <v>14.01088610452265</v>
       </c>
       <c r="K43" t="n">
-        <v>12.08581989270142</v>
+        <v>10.07631485409216</v>
       </c>
       <c r="L43" t="n">
-        <v>10.55690853463604</v>
+        <v>7.985433933586291</v>
       </c>
       <c r="M43" t="n">
-        <v>10.59596068035418</v>
+        <v>7.884701260890999</v>
       </c>
       <c r="N43" t="n">
-        <v>9.054267004656877</v>
+        <v>6.40747527422576</v>
       </c>
       <c r="O43" t="n">
-        <v>11.69730019489984</v>
+        <v>9.252559636191176</v>
       </c>
       <c r="P43" t="n">
-        <v>13.13791998612571</v>
+        <v>11.04602209616816</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.22027128338765</v>
+        <v>16.77194961588923</v>
       </c>
       <c r="R43" t="n">
-        <v>43.13202094074613</v>
+        <v>42.35432047744712</v>
       </c>
       <c r="S43" t="n">
-        <v>167.1018718220549</v>
+        <v>166.8004460662635</v>
       </c>
       <c r="T43" t="n">
-        <v>240.579424386875</v>
+        <v>240.5055224018871</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3784355477692</v>
+        <v>277.3774921181736</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -25877,49 +25879,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.1253022837963</v>
+        <v>400.0867433522511</v>
       </c>
       <c r="H44" t="n">
-        <v>293.1448980716953</v>
+        <v>292.750006414009</v>
       </c>
       <c r="I44" t="n">
-        <v>27.97973229306479</v>
+        <v>26.49318908467228</v>
       </c>
       <c r="J44" t="n">
-        <v>14.96006091008002</v>
+        <v>11.687419793854</v>
       </c>
       <c r="K44" t="n">
-        <v>14.09296117214526</v>
+        <v>9.188120483615116</v>
       </c>
       <c r="L44" t="n">
-        <v>11.42645714324615</v>
+        <v>5.341568553442613</v>
       </c>
       <c r="M44" t="n">
-        <v>7.515868967310212</v>
+        <v>0.7452579786414901</v>
       </c>
       <c r="N44" t="n">
-        <v>6.880166552921242</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>8.685614816471279</v>
+        <v>2.188868639101635</v>
       </c>
       <c r="P44" t="n">
-        <v>13.07601436734049</v>
+        <v>7.531191812490523</v>
       </c>
       <c r="Q44" t="n">
-        <v>17.72668497534603</v>
+        <v>13.562754156455</v>
       </c>
       <c r="R44" t="n">
-        <v>24.33067662398352</v>
+        <v>21.90854914031357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.44132614396322</v>
+        <v>98.56266449137924</v>
       </c>
       <c r="T44" t="n">
-        <v>217.9705227479646</v>
+        <v>217.8017310251259</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7577307493399</v>
+        <v>255.7546460348163</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25956,22 +25958,22 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>93.0220783443572</v>
+        <v>93.00144749716304</v>
       </c>
       <c r="H45" t="n">
-        <v>51.96195995481764</v>
+        <v>51.76270940428461</v>
       </c>
       <c r="I45" t="n">
-        <v>13.03391129523499</v>
+        <v>12.32359484578712</v>
       </c>
       <c r="J45" t="n">
-        <v>11.9988978019839</v>
+        <v>10.04973517299579</v>
       </c>
       <c r="K45" t="n">
-        <v>7.679584047590229</v>
+        <v>4.348154656593753</v>
       </c>
       <c r="L45" t="n">
-        <v>2.722701059689193</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -25980,25 +25982,25 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>1.483625009529543</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>4.364096701700124</v>
+        <v>0.424509749335602</v>
       </c>
       <c r="Q45" t="n">
-        <v>11.11109056471342</v>
+        <v>8.477581017613943</v>
       </c>
       <c r="R45" t="n">
-        <v>18.01326862501631</v>
+        <v>16.73234637554063</v>
       </c>
       <c r="S45" t="n">
-        <v>78.81782744194658</v>
+        <v>78.43461850393234</v>
       </c>
       <c r="T45" t="n">
-        <v>140.0937148239062</v>
+        <v>140.0105580319263</v>
       </c>
       <c r="U45" t="n">
-        <v>182.9145170327034</v>
+        <v>182.9131597401249</v>
       </c>
       <c r="V45" t="n">
         <v>202.9234074721264</v>
@@ -26035,49 +26037,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5179781150012</v>
+        <v>164.5006819057487</v>
       </c>
       <c r="H46" t="n">
-        <v>141.6788456974052</v>
+        <v>141.5250666733238</v>
       </c>
       <c r="I46" t="n">
-        <v>96.47266780995034</v>
+        <v>95.95252362624773</v>
       </c>
       <c r="J46" t="n">
-        <v>15.23372809867477</v>
+        <v>14.01088610452265</v>
       </c>
       <c r="K46" t="n">
-        <v>12.08581989270142</v>
+        <v>10.07631485409216</v>
       </c>
       <c r="L46" t="n">
-        <v>10.55690853463604</v>
+        <v>7.985433933586291</v>
       </c>
       <c r="M46" t="n">
-        <v>10.59596068035418</v>
+        <v>7.884701260890999</v>
       </c>
       <c r="N46" t="n">
-        <v>9.054267004656879</v>
+        <v>6.40747527422576</v>
       </c>
       <c r="O46" t="n">
-        <v>11.69730019489984</v>
+        <v>9.252559636191176</v>
       </c>
       <c r="P46" t="n">
-        <v>13.13791998612571</v>
+        <v>11.04602209616816</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.22027128338765</v>
+        <v>16.77194961588923</v>
       </c>
       <c r="R46" t="n">
-        <v>43.13202094074613</v>
+        <v>42.35432047744712</v>
       </c>
       <c r="S46" t="n">
-        <v>167.1018718220549</v>
+        <v>166.8004460662635</v>
       </c>
       <c r="T46" t="n">
-        <v>240.579424386875</v>
+        <v>240.5055224018871</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3784355477692</v>
+        <v>277.3774921181736</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39334.24688013184</v>
+        <v>47251.18703566867</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>39334.24688013184</v>
+        <v>47251.18703566867</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>39334.24688013184</v>
+        <v>47251.18703566867</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>39334.24688013184</v>
+        <v>47251.18703566867</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>39334.24688013184</v>
+        <v>47251.18703566867</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>39334.24688013184</v>
+        <v>47251.18703566867</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>39334.24688013184</v>
+        <v>47251.18703566867</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>39334.24688013184</v>
+        <v>47251.18703566867</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>39334.24688013184</v>
+        <v>47251.18703566867</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>39334.24688013184</v>
+        <v>47251.18703566867</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>39334.24688013184</v>
+        <v>47251.18703566867</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>39334.24688013182</v>
+        <v>47251.18703566867</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5803.413474117813</v>
+        <v>6971.486611819969</v>
       </c>
       <c r="F2" t="n">
-        <v>5803.413474117813</v>
+        <v>6971.486611819969</v>
       </c>
       <c r="G2" t="n">
-        <v>5803.413474117813</v>
+        <v>6971.486611819969</v>
       </c>
       <c r="H2" t="n">
-        <v>5803.413474117813</v>
+        <v>6971.486611819969</v>
       </c>
       <c r="I2" t="n">
-        <v>5803.413474117813</v>
+        <v>6971.486611819969</v>
       </c>
       <c r="J2" t="n">
-        <v>5803.413474117813</v>
+        <v>6971.486611819968</v>
       </c>
       <c r="K2" t="n">
-        <v>5803.413474117813</v>
+        <v>6971.486611819969</v>
       </c>
       <c r="L2" t="n">
-        <v>5803.413474117814</v>
+        <v>6971.486611819969</v>
       </c>
       <c r="M2" t="n">
-        <v>5803.413474117814</v>
+        <v>6971.486611819969</v>
       </c>
       <c r="N2" t="n">
-        <v>5803.413474117813</v>
+        <v>6971.486611819968</v>
       </c>
       <c r="O2" t="n">
-        <v>5803.413474117813</v>
+        <v>6971.486611819968</v>
       </c>
       <c r="P2" t="n">
-        <v>5803.413474117813</v>
+        <v>6971.486611819969</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>34047.74817237769</v>
+        <v>41753.61554080973</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>923.8712204931194</v>
+        <v>1132.966666529316</v>
       </c>
       <c r="F5" t="n">
-        <v>923.8712204931194</v>
+        <v>1132.966666529316</v>
       </c>
       <c r="G5" t="n">
-        <v>923.8712204931194</v>
+        <v>1132.966666529316</v>
       </c>
       <c r="H5" t="n">
-        <v>923.8712204931194</v>
+        <v>1132.966666529316</v>
       </c>
       <c r="I5" t="n">
-        <v>923.8712204931194</v>
+        <v>1132.966666529316</v>
       </c>
       <c r="J5" t="n">
-        <v>923.8712204931194</v>
+        <v>1132.966666529316</v>
       </c>
       <c r="K5" t="n">
-        <v>923.8712204931194</v>
+        <v>1132.966666529316</v>
       </c>
       <c r="L5" t="n">
-        <v>923.8712204931194</v>
+        <v>1132.966666529316</v>
       </c>
       <c r="M5" t="n">
-        <v>923.8712204931194</v>
+        <v>1132.966666529316</v>
       </c>
       <c r="N5" t="n">
-        <v>923.8712204931194</v>
+        <v>1132.966666529316</v>
       </c>
       <c r="O5" t="n">
-        <v>923.8712204931194</v>
+        <v>1132.966666529316</v>
       </c>
       <c r="P5" t="n">
-        <v>923.8712204931193</v>
+        <v>1132.966666529316</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-29168.20591875299</v>
+        <v>-35915.09559551907</v>
       </c>
       <c r="F6" t="n">
-        <v>4879.542253624693</v>
+        <v>5838.519945290653</v>
       </c>
       <c r="G6" t="n">
-        <v>4879.542253624693</v>
+        <v>5838.519945290653</v>
       </c>
       <c r="H6" t="n">
-        <v>4879.542253624693</v>
+        <v>5838.519945290653</v>
       </c>
       <c r="I6" t="n">
-        <v>4879.542253624693</v>
+        <v>5838.519945290653</v>
       </c>
       <c r="J6" t="n">
-        <v>4879.542253624693</v>
+        <v>5838.519945290652</v>
       </c>
       <c r="K6" t="n">
-        <v>4879.542253624693</v>
+        <v>5838.519945290653</v>
       </c>
       <c r="L6" t="n">
-        <v>4879.542253624695</v>
+        <v>5838.519945290653</v>
       </c>
       <c r="M6" t="n">
-        <v>4879.542253624695</v>
+        <v>5838.519945290653</v>
       </c>
       <c r="N6" t="n">
-        <v>4879.542253624693</v>
+        <v>5838.519945290652</v>
       </c>
       <c r="O6" t="n">
-        <v>4879.542253624693</v>
+        <v>5838.519945290652</v>
       </c>
       <c r="P6" t="n">
-        <v>4879.542253624694</v>
+        <v>5838.519945290653</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>42.37941378408804</v>
+        <v>51.97094800593192</v>
       </c>
       <c r="F3" t="n">
-        <v>42.37941378408804</v>
+        <v>51.97094800593192</v>
       </c>
       <c r="G3" t="n">
-        <v>42.37941378408804</v>
+        <v>51.97094800593192</v>
       </c>
       <c r="H3" t="n">
-        <v>42.37941378408804</v>
+        <v>51.97094800593192</v>
       </c>
       <c r="I3" t="n">
-        <v>42.37941378408804</v>
+        <v>51.97094800593192</v>
       </c>
       <c r="J3" t="n">
-        <v>42.37941378408804</v>
+        <v>51.97094800593192</v>
       </c>
       <c r="K3" t="n">
-        <v>42.37941378408804</v>
+        <v>51.97094800593192</v>
       </c>
       <c r="L3" t="n">
-        <v>42.37941378408804</v>
+        <v>51.97094800593192</v>
       </c>
       <c r="M3" t="n">
-        <v>42.37941378408804</v>
+        <v>51.97094800593192</v>
       </c>
       <c r="N3" t="n">
-        <v>42.37941378408804</v>
+        <v>51.97094800593192</v>
       </c>
       <c r="O3" t="n">
-        <v>42.37941378408804</v>
+        <v>51.97094800593192</v>
       </c>
       <c r="P3" t="n">
-        <v>42.37941378408804</v>
+        <v>51.97094800593192</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>42.37941378408804</v>
+        <v>51.97094800593192</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1703695026496</v>
+        <v>0.208928434194701</v>
       </c>
       <c r="H11" t="n">
-        <v>1.744796669010217</v>
+        <v>2.139688326696483</v>
       </c>
       <c r="I11" t="n">
-        <v>6.568170250898712</v>
+        <v>8.05471345929122</v>
       </c>
       <c r="J11" t="n">
-        <v>14.45989857550651</v>
+        <v>17.73253969173252</v>
       </c>
       <c r="K11" t="n">
-        <v>21.67163962266408</v>
+        <v>26.57648031119422</v>
       </c>
       <c r="L11" t="n">
-        <v>26.88558528937678</v>
+        <v>32.97047387918031</v>
       </c>
       <c r="M11" t="n">
-        <v>29.91539393212161</v>
+        <v>36.68600492079032</v>
       </c>
       <c r="N11" t="n">
-        <v>30.39945628152478</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>28.70534453955282</v>
+        <v>35.20209071692246</v>
       </c>
       <c r="P11" t="n">
-        <v>24.49934744289082</v>
+        <v>30.04416999774078</v>
       </c>
       <c r="Q11" t="n">
-        <v>18.39798962925201</v>
+        <v>22.56192044814304</v>
       </c>
       <c r="R11" t="n">
-        <v>10.70197327081295</v>
+        <v>13.1241007544829</v>
       </c>
       <c r="S11" t="n">
-        <v>3.882295041627765</v>
+        <v>4.760956694211755</v>
       </c>
       <c r="T11" t="n">
-        <v>0.7457924978486246</v>
+        <v>0.9145842206873043</v>
       </c>
       <c r="U11" t="n">
-        <v>0.013629560211968</v>
+        <v>0.01671427473557608</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09115572021483088</v>
+        <v>0.1117865674089857</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8803723504958669</v>
+        <v>1.079622901028888</v>
       </c>
       <c r="I12" t="n">
-        <v>3.138475454765011</v>
+        <v>3.848791904212884</v>
       </c>
       <c r="J12" t="n">
-        <v>8.612216531349441</v>
+        <v>10.56137916033754</v>
       </c>
       <c r="K12" t="n">
-        <v>14.71964978574311</v>
+        <v>18.05107917673958</v>
       </c>
       <c r="L12" t="n">
-        <v>19.79238565454037</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -31853,25 +31855,25 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>21.68826471269268</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>17.40674450312854</v>
+        <v>21.34633145549306</v>
       </c>
       <c r="Q12" t="n">
-        <v>11.63594772426508</v>
+        <v>14.26945727136455</v>
       </c>
       <c r="R12" t="n">
-        <v>5.659650769127836</v>
+        <v>6.940573018603515</v>
       </c>
       <c r="S12" t="n">
-        <v>1.693177522411441</v>
+        <v>2.076386460425675</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3674215213922349</v>
+        <v>0.4505783133721832</v>
       </c>
       <c r="U12" t="n">
-        <v>0.005997086856238877</v>
+        <v>0.007354379434801691</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07642189370901122</v>
+        <v>0.09371810296151657</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6794601095219366</v>
+        <v>0.8332391336033025</v>
       </c>
       <c r="I13" t="n">
-        <v>2.298214767176447</v>
+        <v>2.818358950879063</v>
       </c>
       <c r="J13" t="n">
-        <v>5.403027885227093</v>
+        <v>6.625869879379222</v>
       </c>
       <c r="K13" t="n">
-        <v>8.878834560010574</v>
+        <v>10.88833959861983</v>
       </c>
       <c r="L13" t="n">
-        <v>11.36185136106518</v>
+        <v>13.93332596211493</v>
       </c>
       <c r="M13" t="n">
-        <v>11.97947921113164</v>
+        <v>14.69073863059482</v>
       </c>
       <c r="N13" t="n">
-        <v>11.69463397094352</v>
+        <v>14.34142570137463</v>
       </c>
       <c r="O13" t="n">
-        <v>10.80188730352461</v>
+        <v>13.24662786223328</v>
       </c>
       <c r="P13" t="n">
-        <v>9.242880671860771</v>
+        <v>11.33477856181833</v>
       </c>
       <c r="Q13" t="n">
-        <v>6.399291481397294</v>
+        <v>7.847613148895721</v>
       </c>
       <c r="R13" t="n">
-        <v>3.436206238952449</v>
+        <v>4.213906702251462</v>
       </c>
       <c r="S13" t="n">
-        <v>1.331825184001586</v>
+        <v>1.633250939792975</v>
       </c>
       <c r="T13" t="n">
-        <v>0.3265299094839569</v>
+        <v>0.4004318944719343</v>
       </c>
       <c r="U13" t="n">
-        <v>0.004168466929582434</v>
+        <v>0.005111896525173638</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1703695026496</v>
+        <v>0.208928434194701</v>
       </c>
       <c r="H14" t="n">
-        <v>1.744796669010217</v>
+        <v>2.139688326696483</v>
       </c>
       <c r="I14" t="n">
-        <v>6.568170250898712</v>
+        <v>8.05471345929122</v>
       </c>
       <c r="J14" t="n">
-        <v>14.45989857550651</v>
+        <v>17.73253969173252</v>
       </c>
       <c r="K14" t="n">
-        <v>21.67163962266408</v>
+        <v>26.57648031119422</v>
       </c>
       <c r="L14" t="n">
-        <v>26.88558528937678</v>
+        <v>32.97047387918031</v>
       </c>
       <c r="M14" t="n">
-        <v>29.91539393212161</v>
+        <v>36.68600492079032</v>
       </c>
       <c r="N14" t="n">
-        <v>30.39945628152478</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>28.70534453955282</v>
+        <v>35.20209071692246</v>
       </c>
       <c r="P14" t="n">
-        <v>24.49934744289082</v>
+        <v>30.04416999774078</v>
       </c>
       <c r="Q14" t="n">
-        <v>18.39798962925201</v>
+        <v>22.56192044814304</v>
       </c>
       <c r="R14" t="n">
-        <v>10.70197327081295</v>
+        <v>13.1241007544829</v>
       </c>
       <c r="S14" t="n">
-        <v>3.882295041627765</v>
+        <v>4.760956694211755</v>
       </c>
       <c r="T14" t="n">
-        <v>0.7457924978486246</v>
+        <v>0.9145842206873043</v>
       </c>
       <c r="U14" t="n">
-        <v>0.013629560211968</v>
+        <v>0.01671427473557608</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09115572021483088</v>
+        <v>0.1117865674089857</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8803723504958669</v>
+        <v>1.079622901028888</v>
       </c>
       <c r="I15" t="n">
-        <v>3.138475454765011</v>
+        <v>3.848791904212884</v>
       </c>
       <c r="J15" t="n">
-        <v>8.612216531349441</v>
+        <v>10.56137916033754</v>
       </c>
       <c r="K15" t="n">
-        <v>14.71964978574311</v>
+        <v>18.05107917673958</v>
       </c>
       <c r="L15" t="n">
-        <v>19.79238565454037</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
@@ -32090,25 +32092,25 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>21.68826471269268</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>17.40674450312854</v>
+        <v>21.34633145549306</v>
       </c>
       <c r="Q15" t="n">
-        <v>11.63594772426508</v>
+        <v>14.26945727136455</v>
       </c>
       <c r="R15" t="n">
-        <v>5.659650769127836</v>
+        <v>6.940573018603515</v>
       </c>
       <c r="S15" t="n">
-        <v>1.693177522411441</v>
+        <v>2.076386460425675</v>
       </c>
       <c r="T15" t="n">
-        <v>0.3674215213922349</v>
+        <v>0.4505783133721832</v>
       </c>
       <c r="U15" t="n">
-        <v>0.005997086856238877</v>
+        <v>0.007354379434801691</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07642189370901122</v>
+        <v>0.09371810296151657</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6794601095219366</v>
+        <v>0.8332391336033025</v>
       </c>
       <c r="I16" t="n">
-        <v>2.298214767176447</v>
+        <v>2.818358950879063</v>
       </c>
       <c r="J16" t="n">
-        <v>5.403027885227093</v>
+        <v>6.625869879379222</v>
       </c>
       <c r="K16" t="n">
-        <v>8.878834560010574</v>
+        <v>10.88833959861983</v>
       </c>
       <c r="L16" t="n">
-        <v>11.36185136106518</v>
+        <v>13.93332596211493</v>
       </c>
       <c r="M16" t="n">
-        <v>11.97947921113164</v>
+        <v>14.69073863059482</v>
       </c>
       <c r="N16" t="n">
-        <v>11.69463397094352</v>
+        <v>14.34142570137463</v>
       </c>
       <c r="O16" t="n">
-        <v>10.80188730352461</v>
+        <v>13.24662786223328</v>
       </c>
       <c r="P16" t="n">
-        <v>9.242880671860771</v>
+        <v>11.33477856181833</v>
       </c>
       <c r="Q16" t="n">
-        <v>6.399291481397294</v>
+        <v>7.847613148895721</v>
       </c>
       <c r="R16" t="n">
-        <v>3.436206238952449</v>
+        <v>4.213906702251462</v>
       </c>
       <c r="S16" t="n">
-        <v>1.331825184001586</v>
+        <v>1.633250939792975</v>
       </c>
       <c r="T16" t="n">
-        <v>0.3265299094839569</v>
+        <v>0.4004318944719343</v>
       </c>
       <c r="U16" t="n">
-        <v>0.004168466929582434</v>
+        <v>0.005111896525173638</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1703695026496</v>
+        <v>0.208928434194701</v>
       </c>
       <c r="H17" t="n">
-        <v>1.744796669010217</v>
+        <v>2.139688326696483</v>
       </c>
       <c r="I17" t="n">
-        <v>6.568170250898712</v>
+        <v>8.05471345929122</v>
       </c>
       <c r="J17" t="n">
-        <v>14.45989857550651</v>
+        <v>17.73253969173252</v>
       </c>
       <c r="K17" t="n">
-        <v>21.67163962266408</v>
+        <v>26.57648031119422</v>
       </c>
       <c r="L17" t="n">
-        <v>26.88558528937678</v>
+        <v>32.97047387918031</v>
       </c>
       <c r="M17" t="n">
-        <v>29.91539393212161</v>
+        <v>36.68600492079032</v>
       </c>
       <c r="N17" t="n">
-        <v>30.39945628152478</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>28.70534453955282</v>
+        <v>35.20209071692246</v>
       </c>
       <c r="P17" t="n">
-        <v>24.49934744289082</v>
+        <v>30.04416999774078</v>
       </c>
       <c r="Q17" t="n">
-        <v>18.39798962925201</v>
+        <v>22.56192044814304</v>
       </c>
       <c r="R17" t="n">
-        <v>10.70197327081295</v>
+        <v>13.1241007544829</v>
       </c>
       <c r="S17" t="n">
-        <v>3.882295041627765</v>
+        <v>4.760956694211755</v>
       </c>
       <c r="T17" t="n">
-        <v>0.7457924978486246</v>
+        <v>0.9145842206873043</v>
       </c>
       <c r="U17" t="n">
-        <v>0.013629560211968</v>
+        <v>0.01671427473557608</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.09115572021483088</v>
+        <v>0.1117865674089857</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8803723504958669</v>
+        <v>1.079622901028888</v>
       </c>
       <c r="I18" t="n">
-        <v>3.138475454765011</v>
+        <v>3.848791904212884</v>
       </c>
       <c r="J18" t="n">
-        <v>8.612216531349441</v>
+        <v>10.56137916033754</v>
       </c>
       <c r="K18" t="n">
-        <v>14.71964978574311</v>
+        <v>18.05107917673958</v>
       </c>
       <c r="L18" t="n">
-        <v>19.79238565454037</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
@@ -32327,25 +32329,25 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>21.68826471269268</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>17.40674450312854</v>
+        <v>21.34633145549306</v>
       </c>
       <c r="Q18" t="n">
-        <v>11.63594772426508</v>
+        <v>14.26945727136455</v>
       </c>
       <c r="R18" t="n">
-        <v>5.659650769127836</v>
+        <v>6.940573018603515</v>
       </c>
       <c r="S18" t="n">
-        <v>1.693177522411441</v>
+        <v>2.076386460425675</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3674215213922349</v>
+        <v>0.4505783133721832</v>
       </c>
       <c r="U18" t="n">
-        <v>0.005997086856238877</v>
+        <v>0.007354379434801691</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07642189370901122</v>
+        <v>0.09371810296151657</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6794601095219366</v>
+        <v>0.8332391336033025</v>
       </c>
       <c r="I19" t="n">
-        <v>2.298214767176447</v>
+        <v>2.818358950879063</v>
       </c>
       <c r="J19" t="n">
-        <v>5.403027885227093</v>
+        <v>6.625869879379222</v>
       </c>
       <c r="K19" t="n">
-        <v>8.878834560010574</v>
+        <v>10.88833959861983</v>
       </c>
       <c r="L19" t="n">
-        <v>11.36185136106518</v>
+        <v>13.93332596211493</v>
       </c>
       <c r="M19" t="n">
-        <v>11.97947921113164</v>
+        <v>14.69073863059482</v>
       </c>
       <c r="N19" t="n">
-        <v>11.69463397094352</v>
+        <v>14.34142570137463</v>
       </c>
       <c r="O19" t="n">
-        <v>10.80188730352461</v>
+        <v>13.24662786223328</v>
       </c>
       <c r="P19" t="n">
-        <v>9.242880671860771</v>
+        <v>11.33477856181833</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.399291481397294</v>
+        <v>7.847613148895721</v>
       </c>
       <c r="R19" t="n">
-        <v>3.436206238952449</v>
+        <v>4.213906702251462</v>
       </c>
       <c r="S19" t="n">
-        <v>1.331825184001586</v>
+        <v>1.633250939792975</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3265299094839569</v>
+        <v>0.4004318944719343</v>
       </c>
       <c r="U19" t="n">
-        <v>0.004168466929582434</v>
+        <v>0.005111896525173638</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1703695026496</v>
+        <v>0.208928434194701</v>
       </c>
       <c r="H20" t="n">
-        <v>1.744796669010217</v>
+        <v>2.139688326696483</v>
       </c>
       <c r="I20" t="n">
-        <v>6.568170250898712</v>
+        <v>8.05471345929122</v>
       </c>
       <c r="J20" t="n">
-        <v>14.45989857550651</v>
+        <v>17.73253969173252</v>
       </c>
       <c r="K20" t="n">
-        <v>21.67163962266408</v>
+        <v>26.57648031119422</v>
       </c>
       <c r="L20" t="n">
-        <v>26.88558528937678</v>
+        <v>32.97047387918031</v>
       </c>
       <c r="M20" t="n">
-        <v>29.91539393212161</v>
+        <v>36.68600492079032</v>
       </c>
       <c r="N20" t="n">
-        <v>30.39945628152478</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>28.70534453955282</v>
+        <v>35.20209071692246</v>
       </c>
       <c r="P20" t="n">
-        <v>24.49934744289082</v>
+        <v>30.04416999774078</v>
       </c>
       <c r="Q20" t="n">
-        <v>18.39798962925201</v>
+        <v>22.56192044814304</v>
       </c>
       <c r="R20" t="n">
-        <v>10.70197327081295</v>
+        <v>13.1241007544829</v>
       </c>
       <c r="S20" t="n">
-        <v>3.882295041627765</v>
+        <v>4.760956694211755</v>
       </c>
       <c r="T20" t="n">
-        <v>0.7457924978486246</v>
+        <v>0.9145842206873043</v>
       </c>
       <c r="U20" t="n">
-        <v>0.013629560211968</v>
+        <v>0.01671427473557608</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.09115572021483088</v>
+        <v>0.1117865674089857</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8803723504958669</v>
+        <v>1.079622901028888</v>
       </c>
       <c r="I21" t="n">
-        <v>3.138475454765011</v>
+        <v>3.848791904212884</v>
       </c>
       <c r="J21" t="n">
-        <v>8.612216531349441</v>
+        <v>10.56137916033754</v>
       </c>
       <c r="K21" t="n">
-        <v>14.71964978574311</v>
+        <v>18.05107917673958</v>
       </c>
       <c r="L21" t="n">
-        <v>19.79238565454037</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
@@ -32564,25 +32566,25 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>21.68826471269268</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>17.40674450312854</v>
+        <v>21.34633145549306</v>
       </c>
       <c r="Q21" t="n">
-        <v>11.63594772426508</v>
+        <v>14.26945727136455</v>
       </c>
       <c r="R21" t="n">
-        <v>5.659650769127836</v>
+        <v>6.940573018603515</v>
       </c>
       <c r="S21" t="n">
-        <v>1.693177522411441</v>
+        <v>2.076386460425675</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3674215213922349</v>
+        <v>0.4505783133721832</v>
       </c>
       <c r="U21" t="n">
-        <v>0.005997086856238877</v>
+        <v>0.007354379434801691</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07642189370901122</v>
+        <v>0.09371810296151657</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6794601095219366</v>
+        <v>0.8332391336033025</v>
       </c>
       <c r="I22" t="n">
-        <v>2.298214767176447</v>
+        <v>2.818358950879063</v>
       </c>
       <c r="J22" t="n">
-        <v>5.403027885227093</v>
+        <v>6.625869879379222</v>
       </c>
       <c r="K22" t="n">
-        <v>8.878834560010574</v>
+        <v>10.88833959861983</v>
       </c>
       <c r="L22" t="n">
-        <v>11.36185136106518</v>
+        <v>13.93332596211493</v>
       </c>
       <c r="M22" t="n">
-        <v>11.97947921113164</v>
+        <v>14.69073863059482</v>
       </c>
       <c r="N22" t="n">
-        <v>11.69463397094352</v>
+        <v>14.34142570137463</v>
       </c>
       <c r="O22" t="n">
-        <v>10.80188730352461</v>
+        <v>13.24662786223328</v>
       </c>
       <c r="P22" t="n">
-        <v>9.242880671860771</v>
+        <v>11.33477856181833</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.399291481397294</v>
+        <v>7.847613148895721</v>
       </c>
       <c r="R22" t="n">
-        <v>3.436206238952449</v>
+        <v>4.213906702251462</v>
       </c>
       <c r="S22" t="n">
-        <v>1.331825184001586</v>
+        <v>1.633250939792975</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3265299094839569</v>
+        <v>0.4004318944719343</v>
       </c>
       <c r="U22" t="n">
-        <v>0.004168466929582434</v>
+        <v>0.005111896525173638</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1703695026496</v>
+        <v>0.208928434194701</v>
       </c>
       <c r="H23" t="n">
-        <v>1.744796669010217</v>
+        <v>2.139688326696482</v>
       </c>
       <c r="I23" t="n">
-        <v>6.568170250898712</v>
+        <v>8.05471345929122</v>
       </c>
       <c r="J23" t="n">
-        <v>14.45989857550651</v>
+        <v>17.73253969173252</v>
       </c>
       <c r="K23" t="n">
-        <v>21.67163962266408</v>
+        <v>26.57648031119422</v>
       </c>
       <c r="L23" t="n">
-        <v>26.88558528937678</v>
+        <v>32.97047387918031</v>
       </c>
       <c r="M23" t="n">
-        <v>29.91539393212161</v>
+        <v>36.68600492079032</v>
       </c>
       <c r="N23" t="n">
-        <v>30.39945628152478</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>28.70534453955282</v>
+        <v>35.20209071692246</v>
       </c>
       <c r="P23" t="n">
-        <v>24.49934744289082</v>
+        <v>30.04416999774077</v>
       </c>
       <c r="Q23" t="n">
-        <v>18.39798962925201</v>
+        <v>22.56192044814304</v>
       </c>
       <c r="R23" t="n">
-        <v>10.70197327081295</v>
+        <v>13.1241007544829</v>
       </c>
       <c r="S23" t="n">
-        <v>3.882295041627765</v>
+        <v>4.760956694211755</v>
       </c>
       <c r="T23" t="n">
-        <v>0.7457924978486246</v>
+        <v>0.9145842206873043</v>
       </c>
       <c r="U23" t="n">
-        <v>0.013629560211968</v>
+        <v>0.01671427473557608</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09115572021483088</v>
+        <v>0.1117865674089856</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8803723504958669</v>
+        <v>1.079622901028888</v>
       </c>
       <c r="I24" t="n">
-        <v>3.138475454765011</v>
+        <v>3.848791904212884</v>
       </c>
       <c r="J24" t="n">
-        <v>8.612216531349441</v>
+        <v>10.56137916033754</v>
       </c>
       <c r="K24" t="n">
-        <v>14.71964978574311</v>
+        <v>18.05107917673958</v>
       </c>
       <c r="L24" t="n">
-        <v>19.79238565454037</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
@@ -32801,25 +32803,25 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>21.68826471269268</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>17.40674450312854</v>
+        <v>21.34633145549306</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.63594772426508</v>
+        <v>14.26945727136456</v>
       </c>
       <c r="R24" t="n">
-        <v>5.659650769127836</v>
+        <v>6.940573018603515</v>
       </c>
       <c r="S24" t="n">
-        <v>1.693177522411441</v>
+        <v>2.076386460425675</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3674215213922349</v>
+        <v>0.4505783133721832</v>
       </c>
       <c r="U24" t="n">
-        <v>0.005997086856238877</v>
+        <v>0.007354379434801691</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07642189370901122</v>
+        <v>0.09371810296151657</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6794601095219366</v>
+        <v>0.8332391336033026</v>
       </c>
       <c r="I25" t="n">
-        <v>2.298214767176447</v>
+        <v>2.818358950879063</v>
       </c>
       <c r="J25" t="n">
-        <v>5.403027885227093</v>
+        <v>6.625869879379222</v>
       </c>
       <c r="K25" t="n">
-        <v>8.878834560010574</v>
+        <v>10.88833959861983</v>
       </c>
       <c r="L25" t="n">
-        <v>11.36185136106518</v>
+        <v>13.93332596211493</v>
       </c>
       <c r="M25" t="n">
-        <v>11.97947921113164</v>
+        <v>14.69073863059482</v>
       </c>
       <c r="N25" t="n">
-        <v>11.69463397094352</v>
+        <v>14.34142570137463</v>
       </c>
       <c r="O25" t="n">
-        <v>10.80188730352461</v>
+        <v>13.24662786223328</v>
       </c>
       <c r="P25" t="n">
-        <v>9.242880671860771</v>
+        <v>11.33477856181833</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.399291481397294</v>
+        <v>7.84761314889572</v>
       </c>
       <c r="R25" t="n">
-        <v>3.436206238952449</v>
+        <v>4.213906702251462</v>
       </c>
       <c r="S25" t="n">
-        <v>1.331825184001586</v>
+        <v>1.633250939792974</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3265299094839569</v>
+        <v>0.4004318944719343</v>
       </c>
       <c r="U25" t="n">
-        <v>0.004168466929582434</v>
+        <v>0.005111896525173638</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1703695026496</v>
+        <v>0.208928434194701</v>
       </c>
       <c r="H26" t="n">
-        <v>1.744796669010217</v>
+        <v>2.139688326696483</v>
       </c>
       <c r="I26" t="n">
-        <v>6.568170250898712</v>
+        <v>8.05471345929122</v>
       </c>
       <c r="J26" t="n">
-        <v>14.45989857550651</v>
+        <v>17.73253969173252</v>
       </c>
       <c r="K26" t="n">
-        <v>21.67163962266408</v>
+        <v>26.57648031119422</v>
       </c>
       <c r="L26" t="n">
-        <v>26.88558528937678</v>
+        <v>32.97047387918031</v>
       </c>
       <c r="M26" t="n">
-        <v>29.91539393212161</v>
+        <v>36.68600492079032</v>
       </c>
       <c r="N26" t="n">
-        <v>30.39945628152478</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>28.70534453955282</v>
+        <v>35.20209071692246</v>
       </c>
       <c r="P26" t="n">
-        <v>24.49934744289082</v>
+        <v>30.04416999774078</v>
       </c>
       <c r="Q26" t="n">
-        <v>18.39798962925201</v>
+        <v>22.56192044814304</v>
       </c>
       <c r="R26" t="n">
-        <v>10.70197327081295</v>
+        <v>13.1241007544829</v>
       </c>
       <c r="S26" t="n">
-        <v>3.882295041627765</v>
+        <v>4.760956694211755</v>
       </c>
       <c r="T26" t="n">
-        <v>0.7457924978486246</v>
+        <v>0.9145842206873043</v>
       </c>
       <c r="U26" t="n">
-        <v>0.013629560211968</v>
+        <v>0.01671427473557608</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09115572021483088</v>
+        <v>0.1117865674089857</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8803723504958669</v>
+        <v>1.079622901028888</v>
       </c>
       <c r="I27" t="n">
-        <v>3.138475454765011</v>
+        <v>3.848791904212884</v>
       </c>
       <c r="J27" t="n">
-        <v>8.612216531349441</v>
+        <v>10.56137916033754</v>
       </c>
       <c r="K27" t="n">
-        <v>14.71964978574311</v>
+        <v>18.05107917673958</v>
       </c>
       <c r="L27" t="n">
-        <v>19.79238565454037</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
@@ -33038,25 +33040,25 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>21.68826471269268</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>17.40674450312854</v>
+        <v>21.34633145549306</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.63594772426508</v>
+        <v>14.26945727136455</v>
       </c>
       <c r="R27" t="n">
-        <v>5.659650769127836</v>
+        <v>6.940573018603515</v>
       </c>
       <c r="S27" t="n">
-        <v>1.693177522411441</v>
+        <v>2.076386460425675</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3674215213922349</v>
+        <v>0.4505783133721832</v>
       </c>
       <c r="U27" t="n">
-        <v>0.005997086856238877</v>
+        <v>0.007354379434801691</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07642189370901122</v>
+        <v>0.09371810296151657</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6794601095219366</v>
+        <v>0.8332391336033025</v>
       </c>
       <c r="I28" t="n">
-        <v>2.298214767176447</v>
+        <v>2.818358950879063</v>
       </c>
       <c r="J28" t="n">
-        <v>5.403027885227093</v>
+        <v>6.625869879379222</v>
       </c>
       <c r="K28" t="n">
-        <v>8.878834560010574</v>
+        <v>10.88833959861983</v>
       </c>
       <c r="L28" t="n">
-        <v>11.36185136106518</v>
+        <v>13.93332596211493</v>
       </c>
       <c r="M28" t="n">
-        <v>11.97947921113164</v>
+        <v>14.69073863059482</v>
       </c>
       <c r="N28" t="n">
-        <v>11.69463397094352</v>
+        <v>14.34142570137463</v>
       </c>
       <c r="O28" t="n">
-        <v>10.80188730352461</v>
+        <v>13.24662786223328</v>
       </c>
       <c r="P28" t="n">
-        <v>9.242880671860771</v>
+        <v>11.33477856181833</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.399291481397294</v>
+        <v>7.847613148895721</v>
       </c>
       <c r="R28" t="n">
-        <v>3.436206238952449</v>
+        <v>4.213906702251462</v>
       </c>
       <c r="S28" t="n">
-        <v>1.331825184001586</v>
+        <v>1.633250939792975</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3265299094839569</v>
+        <v>0.4004318944719343</v>
       </c>
       <c r="U28" t="n">
-        <v>0.004168466929582434</v>
+        <v>0.005111896525173638</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1703695026496</v>
+        <v>0.208928434194701</v>
       </c>
       <c r="H29" t="n">
-        <v>1.744796669010217</v>
+        <v>2.139688326696483</v>
       </c>
       <c r="I29" t="n">
-        <v>6.568170250898712</v>
+        <v>8.05471345929122</v>
       </c>
       <c r="J29" t="n">
-        <v>14.45989857550651</v>
+        <v>17.73253969173252</v>
       </c>
       <c r="K29" t="n">
-        <v>21.67163962266408</v>
+        <v>26.57648031119422</v>
       </c>
       <c r="L29" t="n">
-        <v>26.88558528937678</v>
+        <v>32.97047387918031</v>
       </c>
       <c r="M29" t="n">
-        <v>29.91539393212161</v>
+        <v>36.68600492079032</v>
       </c>
       <c r="N29" t="n">
-        <v>30.39945628152478</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>28.70534453955282</v>
+        <v>35.20209071692246</v>
       </c>
       <c r="P29" t="n">
-        <v>24.49934744289082</v>
+        <v>30.04416999774078</v>
       </c>
       <c r="Q29" t="n">
-        <v>18.39798962925201</v>
+        <v>22.56192044814304</v>
       </c>
       <c r="R29" t="n">
-        <v>10.70197327081295</v>
+        <v>13.1241007544829</v>
       </c>
       <c r="S29" t="n">
-        <v>3.882295041627765</v>
+        <v>4.760956694211755</v>
       </c>
       <c r="T29" t="n">
-        <v>0.7457924978486246</v>
+        <v>0.9145842206873043</v>
       </c>
       <c r="U29" t="n">
-        <v>0.013629560211968</v>
+        <v>0.01671427473557608</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09115572021483088</v>
+        <v>0.1117865674089857</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8803723504958669</v>
+        <v>1.079622901028888</v>
       </c>
       <c r="I30" t="n">
-        <v>3.138475454765011</v>
+        <v>3.848791904212884</v>
       </c>
       <c r="J30" t="n">
-        <v>8.612216531349441</v>
+        <v>10.56137916033754</v>
       </c>
       <c r="K30" t="n">
-        <v>14.71964978574311</v>
+        <v>18.05107917673958</v>
       </c>
       <c r="L30" t="n">
-        <v>19.79238565454037</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
@@ -33275,25 +33277,25 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>21.68826471269268</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>17.40674450312854</v>
+        <v>21.34633145549306</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.63594772426508</v>
+        <v>14.26945727136455</v>
       </c>
       <c r="R30" t="n">
-        <v>5.659650769127836</v>
+        <v>6.940573018603515</v>
       </c>
       <c r="S30" t="n">
-        <v>1.693177522411441</v>
+        <v>2.076386460425675</v>
       </c>
       <c r="T30" t="n">
-        <v>0.3674215213922349</v>
+        <v>0.4505783133721832</v>
       </c>
       <c r="U30" t="n">
-        <v>0.005997086856238877</v>
+        <v>0.007354379434801691</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07642189370901122</v>
+        <v>0.09371810296151657</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6794601095219366</v>
+        <v>0.8332391336033025</v>
       </c>
       <c r="I31" t="n">
-        <v>2.298214767176447</v>
+        <v>2.818358950879063</v>
       </c>
       <c r="J31" t="n">
-        <v>5.403027885227093</v>
+        <v>6.625869879379222</v>
       </c>
       <c r="K31" t="n">
-        <v>8.878834560010574</v>
+        <v>10.88833959861983</v>
       </c>
       <c r="L31" t="n">
-        <v>11.36185136106518</v>
+        <v>13.93332596211493</v>
       </c>
       <c r="M31" t="n">
-        <v>11.97947921113164</v>
+        <v>14.69073863059482</v>
       </c>
       <c r="N31" t="n">
-        <v>11.69463397094352</v>
+        <v>14.34142570137463</v>
       </c>
       <c r="O31" t="n">
-        <v>10.80188730352461</v>
+        <v>13.24662786223328</v>
       </c>
       <c r="P31" t="n">
-        <v>9.242880671860771</v>
+        <v>11.33477856181833</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.399291481397294</v>
+        <v>7.847613148895721</v>
       </c>
       <c r="R31" t="n">
-        <v>3.436206238952449</v>
+        <v>4.213906702251462</v>
       </c>
       <c r="S31" t="n">
-        <v>1.331825184001586</v>
+        <v>1.633250939792975</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3265299094839569</v>
+        <v>0.4004318944719343</v>
       </c>
       <c r="U31" t="n">
-        <v>0.004168466929582434</v>
+        <v>0.005111896525173638</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1703695026496</v>
+        <v>0.208928434194701</v>
       </c>
       <c r="H32" t="n">
-        <v>1.744796669010217</v>
+        <v>2.139688326696483</v>
       </c>
       <c r="I32" t="n">
-        <v>6.568170250898712</v>
+        <v>8.05471345929122</v>
       </c>
       <c r="J32" t="n">
-        <v>14.45989857550651</v>
+        <v>17.73253969173252</v>
       </c>
       <c r="K32" t="n">
-        <v>21.67163962266408</v>
+        <v>26.57648031119422</v>
       </c>
       <c r="L32" t="n">
-        <v>26.88558528937678</v>
+        <v>32.97047387918031</v>
       </c>
       <c r="M32" t="n">
-        <v>29.91539393212161</v>
+        <v>36.68600492079032</v>
       </c>
       <c r="N32" t="n">
-        <v>30.39945628152478</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>28.70534453955282</v>
+        <v>35.20209071692246</v>
       </c>
       <c r="P32" t="n">
-        <v>24.49934744289082</v>
+        <v>30.04416999774078</v>
       </c>
       <c r="Q32" t="n">
-        <v>18.39798962925201</v>
+        <v>22.56192044814304</v>
       </c>
       <c r="R32" t="n">
-        <v>10.70197327081295</v>
+        <v>13.1241007544829</v>
       </c>
       <c r="S32" t="n">
-        <v>3.882295041627765</v>
+        <v>4.760956694211755</v>
       </c>
       <c r="T32" t="n">
-        <v>0.7457924978486246</v>
+        <v>0.9145842206873043</v>
       </c>
       <c r="U32" t="n">
-        <v>0.013629560211968</v>
+        <v>0.01671427473557608</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09115572021483088</v>
+        <v>0.1117865674089857</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8803723504958669</v>
+        <v>1.079622901028888</v>
       </c>
       <c r="I33" t="n">
-        <v>3.138475454765011</v>
+        <v>3.848791904212884</v>
       </c>
       <c r="J33" t="n">
-        <v>8.612216531349441</v>
+        <v>10.56137916033754</v>
       </c>
       <c r="K33" t="n">
-        <v>14.71964978574311</v>
+        <v>18.05107917673958</v>
       </c>
       <c r="L33" t="n">
-        <v>19.79238565454037</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
@@ -33512,25 +33514,25 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>21.68826471269268</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>17.40674450312854</v>
+        <v>21.34633145549306</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.63594772426508</v>
+        <v>14.26945727136455</v>
       </c>
       <c r="R33" t="n">
-        <v>5.659650769127836</v>
+        <v>6.940573018603515</v>
       </c>
       <c r="S33" t="n">
-        <v>1.693177522411441</v>
+        <v>2.076386460425675</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3674215213922349</v>
+        <v>0.4505783133721832</v>
       </c>
       <c r="U33" t="n">
-        <v>0.005997086856238877</v>
+        <v>0.007354379434801691</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07642189370901122</v>
+        <v>0.09371810296151657</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6794601095219366</v>
+        <v>0.8332391336033025</v>
       </c>
       <c r="I34" t="n">
-        <v>2.298214767176447</v>
+        <v>2.818358950879063</v>
       </c>
       <c r="J34" t="n">
-        <v>5.403027885227093</v>
+        <v>6.625869879379222</v>
       </c>
       <c r="K34" t="n">
-        <v>8.878834560010574</v>
+        <v>10.88833959861983</v>
       </c>
       <c r="L34" t="n">
-        <v>11.36185136106518</v>
+        <v>13.93332596211493</v>
       </c>
       <c r="M34" t="n">
-        <v>11.97947921113164</v>
+        <v>14.69073863059482</v>
       </c>
       <c r="N34" t="n">
-        <v>11.69463397094352</v>
+        <v>14.34142570137463</v>
       </c>
       <c r="O34" t="n">
-        <v>10.80188730352461</v>
+        <v>13.24662786223328</v>
       </c>
       <c r="P34" t="n">
-        <v>9.242880671860771</v>
+        <v>11.33477856181833</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.399291481397294</v>
+        <v>7.847613148895721</v>
       </c>
       <c r="R34" t="n">
-        <v>3.436206238952449</v>
+        <v>4.213906702251462</v>
       </c>
       <c r="S34" t="n">
-        <v>1.331825184001586</v>
+        <v>1.633250939792975</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3265299094839569</v>
+        <v>0.4004318944719343</v>
       </c>
       <c r="U34" t="n">
-        <v>0.004168466929582434</v>
+        <v>0.005111896525173638</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1703695026496</v>
+        <v>0.208928434194701</v>
       </c>
       <c r="H35" t="n">
-        <v>1.744796669010217</v>
+        <v>2.139688326696483</v>
       </c>
       <c r="I35" t="n">
-        <v>6.568170250898712</v>
+        <v>8.05471345929122</v>
       </c>
       <c r="J35" t="n">
-        <v>14.45989857550651</v>
+        <v>17.73253969173252</v>
       </c>
       <c r="K35" t="n">
-        <v>21.67163962266408</v>
+        <v>26.57648031119422</v>
       </c>
       <c r="L35" t="n">
-        <v>26.88558528937678</v>
+        <v>32.97047387918031</v>
       </c>
       <c r="M35" t="n">
-        <v>29.91539393212161</v>
+        <v>36.68600492079032</v>
       </c>
       <c r="N35" t="n">
-        <v>30.39945628152478</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>28.70534453955282</v>
+        <v>35.20209071692246</v>
       </c>
       <c r="P35" t="n">
-        <v>24.49934744289082</v>
+        <v>30.04416999774078</v>
       </c>
       <c r="Q35" t="n">
-        <v>18.39798962925201</v>
+        <v>22.56192044814304</v>
       </c>
       <c r="R35" t="n">
-        <v>10.70197327081295</v>
+        <v>13.1241007544829</v>
       </c>
       <c r="S35" t="n">
-        <v>3.882295041627765</v>
+        <v>4.760956694211755</v>
       </c>
       <c r="T35" t="n">
-        <v>0.7457924978486246</v>
+        <v>0.9145842206873043</v>
       </c>
       <c r="U35" t="n">
-        <v>0.013629560211968</v>
+        <v>0.01671427473557608</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.09115572021483088</v>
+        <v>0.1117865674089857</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8803723504958669</v>
+        <v>1.079622901028888</v>
       </c>
       <c r="I36" t="n">
-        <v>3.138475454765011</v>
+        <v>3.848791904212884</v>
       </c>
       <c r="J36" t="n">
-        <v>8.612216531349441</v>
+        <v>10.56137916033754</v>
       </c>
       <c r="K36" t="n">
-        <v>14.71964978574311</v>
+        <v>18.05107917673958</v>
       </c>
       <c r="L36" t="n">
-        <v>19.79238565454037</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
@@ -33749,25 +33751,25 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>21.68826471269268</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>17.40674450312854</v>
+        <v>21.34633145549306</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.63594772426508</v>
+        <v>14.26945727136455</v>
       </c>
       <c r="R36" t="n">
-        <v>5.659650769127836</v>
+        <v>6.940573018603515</v>
       </c>
       <c r="S36" t="n">
-        <v>1.693177522411441</v>
+        <v>2.076386460425675</v>
       </c>
       <c r="T36" t="n">
-        <v>0.3674215213922349</v>
+        <v>0.4505783133721832</v>
       </c>
       <c r="U36" t="n">
-        <v>0.005997086856238877</v>
+        <v>0.007354379434801691</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07642189370901122</v>
+        <v>0.09371810296151657</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6794601095219366</v>
+        <v>0.8332391336033025</v>
       </c>
       <c r="I37" t="n">
-        <v>2.298214767176447</v>
+        <v>2.818358950879063</v>
       </c>
       <c r="J37" t="n">
-        <v>5.403027885227093</v>
+        <v>6.625869879379222</v>
       </c>
       <c r="K37" t="n">
-        <v>8.878834560010574</v>
+        <v>10.88833959861983</v>
       </c>
       <c r="L37" t="n">
-        <v>11.36185136106518</v>
+        <v>13.93332596211493</v>
       </c>
       <c r="M37" t="n">
-        <v>11.97947921113164</v>
+        <v>14.69073863059482</v>
       </c>
       <c r="N37" t="n">
-        <v>11.69463397094352</v>
+        <v>14.34142570137463</v>
       </c>
       <c r="O37" t="n">
-        <v>10.80188730352461</v>
+        <v>13.24662786223328</v>
       </c>
       <c r="P37" t="n">
-        <v>9.242880671860771</v>
+        <v>11.33477856181833</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.399291481397294</v>
+        <v>7.847613148895721</v>
       </c>
       <c r="R37" t="n">
-        <v>3.436206238952449</v>
+        <v>4.213906702251462</v>
       </c>
       <c r="S37" t="n">
-        <v>1.331825184001586</v>
+        <v>1.633250939792975</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3265299094839569</v>
+        <v>0.4004318944719343</v>
       </c>
       <c r="U37" t="n">
-        <v>0.004168466929582434</v>
+        <v>0.005111896525173638</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1703695026496</v>
+        <v>0.208928434194701</v>
       </c>
       <c r="H38" t="n">
-        <v>1.744796669010217</v>
+        <v>2.139688326696483</v>
       </c>
       <c r="I38" t="n">
-        <v>6.568170250898712</v>
+        <v>8.05471345929122</v>
       </c>
       <c r="J38" t="n">
-        <v>14.45989857550651</v>
+        <v>17.73253969173252</v>
       </c>
       <c r="K38" t="n">
-        <v>21.67163962266408</v>
+        <v>26.57648031119422</v>
       </c>
       <c r="L38" t="n">
-        <v>26.88558528937678</v>
+        <v>32.97047387918031</v>
       </c>
       <c r="M38" t="n">
-        <v>29.91539393212161</v>
+        <v>36.68600492079032</v>
       </c>
       <c r="N38" t="n">
-        <v>30.39945628152478</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>28.70534453955282</v>
+        <v>35.20209071692246</v>
       </c>
       <c r="P38" t="n">
-        <v>24.49934744289082</v>
+        <v>30.04416999774078</v>
       </c>
       <c r="Q38" t="n">
-        <v>18.39798962925201</v>
+        <v>22.56192044814304</v>
       </c>
       <c r="R38" t="n">
-        <v>10.70197327081295</v>
+        <v>13.1241007544829</v>
       </c>
       <c r="S38" t="n">
-        <v>3.882295041627765</v>
+        <v>4.760956694211755</v>
       </c>
       <c r="T38" t="n">
-        <v>0.7457924978486246</v>
+        <v>0.9145842206873043</v>
       </c>
       <c r="U38" t="n">
-        <v>0.013629560211968</v>
+        <v>0.01671427473557608</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09115572021483088</v>
+        <v>0.1117865674089857</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8803723504958669</v>
+        <v>1.079622901028888</v>
       </c>
       <c r="I39" t="n">
-        <v>3.138475454765011</v>
+        <v>3.848791904212884</v>
       </c>
       <c r="J39" t="n">
-        <v>8.612216531349441</v>
+        <v>10.56137916033754</v>
       </c>
       <c r="K39" t="n">
-        <v>14.71964978574311</v>
+        <v>18.05107917673958</v>
       </c>
       <c r="L39" t="n">
-        <v>19.79238565454037</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -33986,25 +33988,25 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>21.68826471269268</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>17.40674450312854</v>
+        <v>21.34633145549306</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.63594772426508</v>
+        <v>14.26945727136455</v>
       </c>
       <c r="R39" t="n">
-        <v>5.659650769127836</v>
+        <v>6.940573018603515</v>
       </c>
       <c r="S39" t="n">
-        <v>1.693177522411441</v>
+        <v>2.076386460425675</v>
       </c>
       <c r="T39" t="n">
-        <v>0.3674215213922349</v>
+        <v>0.4505783133721832</v>
       </c>
       <c r="U39" t="n">
-        <v>0.005997086856238877</v>
+        <v>0.007354379434801691</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.07642189370901122</v>
+        <v>0.09371810296151657</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6794601095219366</v>
+        <v>0.8332391336033025</v>
       </c>
       <c r="I40" t="n">
-        <v>2.298214767176447</v>
+        <v>2.818358950879063</v>
       </c>
       <c r="J40" t="n">
-        <v>5.403027885227093</v>
+        <v>6.625869879379222</v>
       </c>
       <c r="K40" t="n">
-        <v>8.878834560010574</v>
+        <v>10.88833959861983</v>
       </c>
       <c r="L40" t="n">
-        <v>11.36185136106518</v>
+        <v>13.93332596211493</v>
       </c>
       <c r="M40" t="n">
-        <v>11.97947921113164</v>
+        <v>14.69073863059482</v>
       </c>
       <c r="N40" t="n">
-        <v>11.69463397094352</v>
+        <v>14.34142570137463</v>
       </c>
       <c r="O40" t="n">
-        <v>10.80188730352461</v>
+        <v>13.24662786223328</v>
       </c>
       <c r="P40" t="n">
-        <v>9.242880671860771</v>
+        <v>11.33477856181833</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.399291481397294</v>
+        <v>7.847613148895721</v>
       </c>
       <c r="R40" t="n">
-        <v>3.436206238952449</v>
+        <v>4.213906702251462</v>
       </c>
       <c r="S40" t="n">
-        <v>1.331825184001586</v>
+        <v>1.633250939792975</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3265299094839569</v>
+        <v>0.4004318944719343</v>
       </c>
       <c r="U40" t="n">
-        <v>0.004168466929582434</v>
+        <v>0.005111896525173638</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1703695026496</v>
+        <v>0.208928434194701</v>
       </c>
       <c r="H41" t="n">
-        <v>1.744796669010217</v>
+        <v>2.139688326696483</v>
       </c>
       <c r="I41" t="n">
-        <v>6.568170250898712</v>
+        <v>8.05471345929122</v>
       </c>
       <c r="J41" t="n">
-        <v>14.45989857550651</v>
+        <v>17.73253969173252</v>
       </c>
       <c r="K41" t="n">
-        <v>21.67163962266408</v>
+        <v>26.57648031119422</v>
       </c>
       <c r="L41" t="n">
-        <v>26.88558528937678</v>
+        <v>32.97047387918031</v>
       </c>
       <c r="M41" t="n">
-        <v>29.91539393212161</v>
+        <v>36.68600492079032</v>
       </c>
       <c r="N41" t="n">
-        <v>30.39945628152478</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>28.70534453955282</v>
+        <v>35.20209071692246</v>
       </c>
       <c r="P41" t="n">
-        <v>24.49934744289082</v>
+        <v>30.04416999774078</v>
       </c>
       <c r="Q41" t="n">
-        <v>18.39798962925201</v>
+        <v>22.56192044814304</v>
       </c>
       <c r="R41" t="n">
-        <v>10.70197327081295</v>
+        <v>13.1241007544829</v>
       </c>
       <c r="S41" t="n">
-        <v>3.882295041627765</v>
+        <v>4.760956694211755</v>
       </c>
       <c r="T41" t="n">
-        <v>0.7457924978486246</v>
+        <v>0.9145842206873043</v>
       </c>
       <c r="U41" t="n">
-        <v>0.013629560211968</v>
+        <v>0.01671427473557608</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.09115572021483088</v>
+        <v>0.1117865674089857</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8803723504958669</v>
+        <v>1.079622901028888</v>
       </c>
       <c r="I42" t="n">
-        <v>3.138475454765011</v>
+        <v>3.848791904212884</v>
       </c>
       <c r="J42" t="n">
-        <v>8.612216531349441</v>
+        <v>10.56137916033754</v>
       </c>
       <c r="K42" t="n">
-        <v>14.71964978574311</v>
+        <v>18.05107917673958</v>
       </c>
       <c r="L42" t="n">
-        <v>19.79238565454037</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
@@ -34223,25 +34225,25 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>21.68826471269268</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>17.40674450312854</v>
+        <v>21.34633145549306</v>
       </c>
       <c r="Q42" t="n">
-        <v>11.63594772426508</v>
+        <v>14.26945727136455</v>
       </c>
       <c r="R42" t="n">
-        <v>5.659650769127836</v>
+        <v>6.940573018603515</v>
       </c>
       <c r="S42" t="n">
-        <v>1.693177522411441</v>
+        <v>2.076386460425675</v>
       </c>
       <c r="T42" t="n">
-        <v>0.3674215213922349</v>
+        <v>0.4505783133721832</v>
       </c>
       <c r="U42" t="n">
-        <v>0.005997086856238877</v>
+        <v>0.007354379434801691</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07642189370901122</v>
+        <v>0.09371810296151657</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6794601095219366</v>
+        <v>0.8332391336033025</v>
       </c>
       <c r="I43" t="n">
-        <v>2.298214767176447</v>
+        <v>2.818358950879063</v>
       </c>
       <c r="J43" t="n">
-        <v>5.403027885227093</v>
+        <v>6.625869879379222</v>
       </c>
       <c r="K43" t="n">
-        <v>8.878834560010574</v>
+        <v>10.88833959861983</v>
       </c>
       <c r="L43" t="n">
-        <v>11.36185136106518</v>
+        <v>13.93332596211493</v>
       </c>
       <c r="M43" t="n">
-        <v>11.97947921113164</v>
+        <v>14.69073863059482</v>
       </c>
       <c r="N43" t="n">
-        <v>11.69463397094352</v>
+        <v>14.34142570137463</v>
       </c>
       <c r="O43" t="n">
-        <v>10.80188730352461</v>
+        <v>13.24662786223328</v>
       </c>
       <c r="P43" t="n">
-        <v>9.242880671860771</v>
+        <v>11.33477856181833</v>
       </c>
       <c r="Q43" t="n">
-        <v>6.399291481397294</v>
+        <v>7.847613148895721</v>
       </c>
       <c r="R43" t="n">
-        <v>3.436206238952449</v>
+        <v>4.213906702251462</v>
       </c>
       <c r="S43" t="n">
-        <v>1.331825184001586</v>
+        <v>1.633250939792975</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3265299094839569</v>
+        <v>0.4004318944719343</v>
       </c>
       <c r="U43" t="n">
-        <v>0.004168466929582434</v>
+        <v>0.005111896525173638</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1703695026496</v>
+        <v>0.208928434194701</v>
       </c>
       <c r="H44" t="n">
-        <v>1.744796669010217</v>
+        <v>2.139688326696483</v>
       </c>
       <c r="I44" t="n">
-        <v>6.568170250898712</v>
+        <v>8.05471345929122</v>
       </c>
       <c r="J44" t="n">
-        <v>14.4598985755065</v>
+        <v>17.73253969173252</v>
       </c>
       <c r="K44" t="n">
-        <v>21.67163962266408</v>
+        <v>26.57648031119422</v>
       </c>
       <c r="L44" t="n">
-        <v>26.88558528937678</v>
+        <v>32.97047387918031</v>
       </c>
       <c r="M44" t="n">
-        <v>29.9153939321216</v>
+        <v>36.68600492079032</v>
       </c>
       <c r="N44" t="n">
-        <v>30.39945628152478</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>28.70534453955282</v>
+        <v>35.20209071692246</v>
       </c>
       <c r="P44" t="n">
-        <v>24.49934744289081</v>
+        <v>30.04416999774078</v>
       </c>
       <c r="Q44" t="n">
-        <v>18.39798962925201</v>
+        <v>22.56192044814304</v>
       </c>
       <c r="R44" t="n">
-        <v>10.70197327081295</v>
+        <v>13.1241007544829</v>
       </c>
       <c r="S44" t="n">
-        <v>3.882295041627765</v>
+        <v>4.760956694211755</v>
       </c>
       <c r="T44" t="n">
-        <v>0.7457924978486244</v>
+        <v>0.9145842206873043</v>
       </c>
       <c r="U44" t="n">
-        <v>0.013629560211968</v>
+        <v>0.01671427473557608</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.09115572021483087</v>
+        <v>0.1117865674089857</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8803723504958668</v>
+        <v>1.079622901028888</v>
       </c>
       <c r="I45" t="n">
-        <v>3.138475454765011</v>
+        <v>3.848791904212884</v>
       </c>
       <c r="J45" t="n">
-        <v>8.612216531349439</v>
+        <v>10.56137916033754</v>
       </c>
       <c r="K45" t="n">
-        <v>14.71964978574311</v>
+        <v>18.05107917673958</v>
       </c>
       <c r="L45" t="n">
-        <v>19.79238565454036</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -34460,25 +34462,25 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>21.68826471269268</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>17.40674450312854</v>
+        <v>21.34633145549306</v>
       </c>
       <c r="Q45" t="n">
-        <v>11.63594772426508</v>
+        <v>14.26945727136455</v>
       </c>
       <c r="R45" t="n">
-        <v>5.659650769127835</v>
+        <v>6.940573018603515</v>
       </c>
       <c r="S45" t="n">
-        <v>1.693177522411441</v>
+        <v>2.076386460425675</v>
       </c>
       <c r="T45" t="n">
-        <v>0.3674215213922349</v>
+        <v>0.4505783133721832</v>
       </c>
       <c r="U45" t="n">
-        <v>0.005997086856238876</v>
+        <v>0.007354379434801691</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0764218937090112</v>
+        <v>0.09371810296151657</v>
       </c>
       <c r="H46" t="n">
-        <v>0.6794601095219365</v>
+        <v>0.8332391336033025</v>
       </c>
       <c r="I46" t="n">
-        <v>2.298214767176447</v>
+        <v>2.818358950879063</v>
       </c>
       <c r="J46" t="n">
-        <v>5.403027885227092</v>
+        <v>6.625869879379222</v>
       </c>
       <c r="K46" t="n">
-        <v>8.878834560010572</v>
+        <v>10.88833959861983</v>
       </c>
       <c r="L46" t="n">
-        <v>11.36185136106518</v>
+        <v>13.93332596211493</v>
       </c>
       <c r="M46" t="n">
-        <v>11.97947921113164</v>
+        <v>14.69073863059482</v>
       </c>
       <c r="N46" t="n">
-        <v>11.69463397094351</v>
+        <v>14.34142570137463</v>
       </c>
       <c r="O46" t="n">
-        <v>10.80188730352461</v>
+        <v>13.24662786223328</v>
       </c>
       <c r="P46" t="n">
-        <v>9.242880671860771</v>
+        <v>11.33477856181833</v>
       </c>
       <c r="Q46" t="n">
-        <v>6.399291481397293</v>
+        <v>7.847613148895721</v>
       </c>
       <c r="R46" t="n">
-        <v>3.436206238952449</v>
+        <v>4.213906702251462</v>
       </c>
       <c r="S46" t="n">
-        <v>1.331825184001586</v>
+        <v>1.633250939792975</v>
       </c>
       <c r="T46" t="n">
-        <v>0.3265299094839569</v>
+        <v>0.4004318944719343</v>
       </c>
       <c r="U46" t="n">
-        <v>0.004168466929582434</v>
+        <v>0.005111896525173638</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_16_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_16_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-86176.10305515279</v>
+        <v>-98006.53050617858</v>
       </c>
     </row>
     <row r="7">
@@ -23521,7 +23521,7 @@
         <v>11.687419793854</v>
       </c>
       <c r="K14" t="n">
-        <v>9.188120483615116</v>
+        <v>9.188120483615119</v>
       </c>
       <c r="L14" t="n">
         <v>5.341568553442613</v>
@@ -23536,7 +23536,7 @@
         <v>2.188868639101635</v>
       </c>
       <c r="P14" t="n">
-        <v>7.531191812490523</v>
+        <v>7.531191812490526</v>
       </c>
       <c r="Q14" t="n">
         <v>13.562754156455</v>
@@ -23618,7 +23618,7 @@
         <v>0.424509749335602</v>
       </c>
       <c r="Q15" t="n">
-        <v>8.477581017613943</v>
+        <v>8.477581017613941</v>
       </c>
       <c r="R15" t="n">
         <v>16.73234637554063</v>
@@ -23679,7 +23679,7 @@
         <v>14.01088610452265</v>
       </c>
       <c r="K16" t="n">
-        <v>10.07631485409216</v>
+        <v>10.07631485409217</v>
       </c>
       <c r="L16" t="n">
         <v>7.985433933586291</v>
@@ -24232,7 +24232,7 @@
         <v>11.687419793854</v>
       </c>
       <c r="K23" t="n">
-        <v>9.188120483615119</v>
+        <v>9.188120483615116</v>
       </c>
       <c r="L23" t="n">
         <v>5.341568553442613</v>
@@ -24247,7 +24247,7 @@
         <v>2.188868639101635</v>
       </c>
       <c r="P23" t="n">
-        <v>7.531191812490526</v>
+        <v>7.531191812490523</v>
       </c>
       <c r="Q23" t="n">
         <v>13.562754156455</v>
@@ -24329,7 +24329,7 @@
         <v>0.424509749335602</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.477581017613941</v>
+        <v>8.477581017613943</v>
       </c>
       <c r="R24" t="n">
         <v>16.73234637554063</v>
@@ -24390,7 +24390,7 @@
         <v>14.01088610452265</v>
       </c>
       <c r="K25" t="n">
-        <v>10.07631485409217</v>
+        <v>10.07631485409216</v>
       </c>
       <c r="L25" t="n">
         <v>7.985433933586291</v>
@@ -26322,7 +26322,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6971.486611819969</v>
+        <v>6971.486611819968</v>
       </c>
       <c r="F2" t="n">
         <v>6971.486611819969</v>
@@ -26337,7 +26337,7 @@
         <v>6971.486611819969</v>
       </c>
       <c r="J2" t="n">
-        <v>6971.486611819968</v>
+        <v>6971.486611819969</v>
       </c>
       <c r="K2" t="n">
         <v>6971.486611819969</v>
@@ -26346,13 +26346,13 @@
         <v>6971.486611819969</v>
       </c>
       <c r="M2" t="n">
+        <v>6971.48661181997</v>
+      </c>
+      <c r="N2" t="n">
         <v>6971.486611819969</v>
       </c>
-      <c r="N2" t="n">
-        <v>6971.486611819968</v>
-      </c>
       <c r="O2" t="n">
-        <v>6971.486611819968</v>
+        <v>6971.48661181997</v>
       </c>
       <c r="P2" t="n">
         <v>6971.486611819969</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-35083.70667002791</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-35083.70667002791</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-35083.70667002791</v>
       </c>
       <c r="E6" t="n">
-        <v>-35915.09559551907</v>
+        <v>-37293.74130319343</v>
       </c>
       <c r="F6" t="n">
-        <v>5838.519945290653</v>
+        <v>4459.8742376163</v>
       </c>
       <c r="G6" t="n">
-        <v>5838.519945290653</v>
+        <v>4459.8742376163</v>
       </c>
       <c r="H6" t="n">
-        <v>5838.519945290653</v>
+        <v>4459.8742376163</v>
       </c>
       <c r="I6" t="n">
-        <v>5838.519945290653</v>
+        <v>4459.8742376163</v>
       </c>
       <c r="J6" t="n">
-        <v>5838.519945290652</v>
+        <v>4459.8742376163</v>
       </c>
       <c r="K6" t="n">
-        <v>5838.519945290653</v>
+        <v>4459.8742376163</v>
       </c>
       <c r="L6" t="n">
-        <v>5838.519945290653</v>
+        <v>4459.8742376163</v>
       </c>
       <c r="M6" t="n">
-        <v>5838.519945290653</v>
+        <v>4459.874237616301</v>
       </c>
       <c r="N6" t="n">
-        <v>5838.519945290652</v>
+        <v>4459.8742376163</v>
       </c>
       <c r="O6" t="n">
-        <v>5838.519945290652</v>
+        <v>4459.874237616301</v>
       </c>
       <c r="P6" t="n">
-        <v>5838.519945290653</v>
+        <v>4459.8742376163</v>
       </c>
     </row>
   </sheetData>
@@ -31992,7 +31992,7 @@
         <v>0.208928434194701</v>
       </c>
       <c r="H14" t="n">
-        <v>2.139688326696483</v>
+        <v>2.139688326696482</v>
       </c>
       <c r="I14" t="n">
         <v>8.05471345929122</v>
@@ -32016,7 +32016,7 @@
         <v>35.20209071692246</v>
       </c>
       <c r="P14" t="n">
-        <v>30.04416999774078</v>
+        <v>30.04416999774077</v>
       </c>
       <c r="Q14" t="n">
         <v>22.56192044814304</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1117865674089857</v>
+        <v>0.1117865674089856</v>
       </c>
       <c r="H15" t="n">
         <v>1.079622901028888</v>
@@ -32098,7 +32098,7 @@
         <v>21.34633145549306</v>
       </c>
       <c r="Q15" t="n">
-        <v>14.26945727136455</v>
+        <v>14.26945727136456</v>
       </c>
       <c r="R15" t="n">
         <v>6.940573018603515</v>
@@ -32150,7 +32150,7 @@
         <v>0.09371810296151657</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8332391336033025</v>
+        <v>0.8332391336033026</v>
       </c>
       <c r="I16" t="n">
         <v>2.818358950879063</v>
@@ -32177,13 +32177,13 @@
         <v>11.33477856181833</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.847613148895721</v>
+        <v>7.84761314889572</v>
       </c>
       <c r="R16" t="n">
         <v>4.213906702251462</v>
       </c>
       <c r="S16" t="n">
-        <v>1.633250939792975</v>
+        <v>1.633250939792974</v>
       </c>
       <c r="T16" t="n">
         <v>0.4004318944719343</v>
@@ -32703,7 +32703,7 @@
         <v>0.208928434194701</v>
       </c>
       <c r="H23" t="n">
-        <v>2.139688326696482</v>
+        <v>2.139688326696483</v>
       </c>
       <c r="I23" t="n">
         <v>8.05471345929122</v>
@@ -32727,7 +32727,7 @@
         <v>35.20209071692246</v>
       </c>
       <c r="P23" t="n">
-        <v>30.04416999774077</v>
+        <v>30.04416999774078</v>
       </c>
       <c r="Q23" t="n">
         <v>22.56192044814304</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1117865674089856</v>
+        <v>0.1117865674089857</v>
       </c>
       <c r="H24" t="n">
         <v>1.079622901028888</v>
@@ -32809,7 +32809,7 @@
         <v>21.34633145549306</v>
       </c>
       <c r="Q24" t="n">
-        <v>14.26945727136456</v>
+        <v>14.26945727136455</v>
       </c>
       <c r="R24" t="n">
         <v>6.940573018603515</v>
@@ -32861,7 +32861,7 @@
         <v>0.09371810296151657</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8332391336033026</v>
+        <v>0.8332391336033025</v>
       </c>
       <c r="I25" t="n">
         <v>2.818358950879063</v>
@@ -32888,13 +32888,13 @@
         <v>11.33477856181833</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.84761314889572</v>
+        <v>7.847613148895721</v>
       </c>
       <c r="R25" t="n">
         <v>4.213906702251462</v>
       </c>
       <c r="S25" t="n">
-        <v>1.633250939792974</v>
+        <v>1.633250939792975</v>
       </c>
       <c r="T25" t="n">
         <v>0.4004318944719343</v>
